--- a/SoThu_Excel/CF7F6100.xlsx
+++ b/SoThu_Excel/CF7F6100.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,14 @@
     <sheet name="Sheet5" sheetId="8" r:id="rId8"/>
     <sheet name="DaTach_CH" sheetId="9" r:id="rId9"/>
     <sheet name="DaTach_TM" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet7" sheetId="11" r:id="rId11"/>
+    <sheet name="DaTach_TMInsert" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">DaTach_CH!$B$1:$F$270</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">DaTach_TMInsert!$A$1:$B$327</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PhanLoaiNhomChuong!$A$1:$J$270</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PhanLoaiTieuMuc!$A$1:$H$251</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$270</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Sheet7!$A$1:$B$327</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -5285,7 +5285,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5313,6 +5313,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5516,7 +5522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5754,6 +5760,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9660,7 +9668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:EO20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -10881,7 +10889,7 @@
       <c r="H2" s="48" t="s">
         <v>1406</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I2" s="88" t="str">
         <f>G2&amp;","&amp;H2</f>
         <v>1,1701</v>
       </c>
@@ -10909,7 +10917,7 @@
       <c r="H3" s="48">
         <v>1702</v>
       </c>
-      <c r="I3" t="str">
+      <c r="I3" s="88" t="str">
         <f t="shared" ref="I3:I66" si="1">G3&amp;","&amp;H3</f>
         <v>1,1702</v>
       </c>
@@ -10937,7 +10945,7 @@
       <c r="H4" s="48">
         <v>1704</v>
       </c>
-      <c r="I4" t="str">
+      <c r="I4" s="88" t="str">
         <f t="shared" si="1"/>
         <v>1,1704</v>
       </c>
@@ -10965,7 +10973,7 @@
       <c r="H5" s="48">
         <v>4931</v>
       </c>
-      <c r="I5" t="str">
+      <c r="I5" s="88" t="str">
         <f t="shared" si="1"/>
         <v>1,4931</v>
       </c>
@@ -10993,7 +11001,7 @@
       <c r="H6" s="48" t="s">
         <v>1407</v>
       </c>
-      <c r="I6" t="str">
+      <c r="I6" s="88" t="str">
         <f t="shared" si="1"/>
         <v>2,1057</v>
       </c>
@@ -11021,7 +11029,7 @@
       <c r="H7" s="48">
         <v>1153</v>
       </c>
-      <c r="I7" t="str">
+      <c r="I7" s="88" t="str">
         <f t="shared" si="1"/>
         <v>2,1153</v>
       </c>
@@ -11049,7 +11057,7 @@
       <c r="H8" s="48">
         <v>1705</v>
       </c>
-      <c r="I8" t="str">
+      <c r="I8" s="88" t="str">
         <f t="shared" si="1"/>
         <v>2,1705</v>
       </c>
@@ -11077,7 +11085,7 @@
       <c r="H9" s="48">
         <v>1761</v>
       </c>
-      <c r="I9" t="str">
+      <c r="I9" s="88" t="str">
         <f t="shared" si="1"/>
         <v>2,1761</v>
       </c>
@@ -11105,7 +11113,7 @@
       <c r="H10" s="48">
         <v>4913</v>
       </c>
-      <c r="I10" t="str">
+      <c r="I10" s="88" t="str">
         <f t="shared" si="1"/>
         <v>2,4913</v>
       </c>
@@ -11133,7 +11141,7 @@
       <c r="H11" s="48">
         <v>4941</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I11" s="88" t="str">
         <f t="shared" si="1"/>
         <v>2,4941</v>
       </c>
@@ -11161,7 +11169,7 @@
       <c r="H12" s="48" t="s">
         <v>1408</v>
       </c>
-      <c r="I12" t="str">
+      <c r="I12" s="88" t="str">
         <f t="shared" si="1"/>
         <v>3,1603</v>
       </c>
@@ -11189,7 +11197,7 @@
       <c r="H13" s="48">
         <v>4254</v>
       </c>
-      <c r="I13" t="str">
+      <c r="I13" s="88" t="str">
         <f t="shared" si="1"/>
         <v>3,4254</v>
       </c>
@@ -11217,7 +11225,7 @@
       <c r="H14" s="48">
         <v>4268</v>
       </c>
-      <c r="I14" t="str">
+      <c r="I14" s="88" t="str">
         <f t="shared" si="1"/>
         <v>3,4268</v>
       </c>
@@ -11245,7 +11253,7 @@
       <c r="H15" s="48">
         <v>4272</v>
       </c>
-      <c r="I15" t="str">
+      <c r="I15" s="88" t="str">
         <f t="shared" si="1"/>
         <v>3,4272</v>
       </c>
@@ -11273,7 +11281,7 @@
       <c r="H16" s="48">
         <v>4944</v>
       </c>
-      <c r="I16" t="str">
+      <c r="I16" s="88" t="str">
         <f t="shared" si="1"/>
         <v>3,4944</v>
       </c>
@@ -11301,7 +11309,7 @@
       <c r="H17" s="48" t="s">
         <v>1409</v>
       </c>
-      <c r="I17" t="str">
+      <c r="I17" s="88" t="str">
         <f t="shared" si="1"/>
         <v>4,3801</v>
       </c>
@@ -11329,7 +11337,7 @@
       <c r="H18" s="48">
         <v>3802</v>
       </c>
-      <c r="I18" t="str">
+      <c r="I18" s="88" t="str">
         <f t="shared" si="1"/>
         <v>4,3802</v>
       </c>
@@ -11357,7 +11365,7 @@
       <c r="H19" s="48">
         <v>3803</v>
       </c>
-      <c r="I19" t="str">
+      <c r="I19" s="88" t="str">
         <f t="shared" si="1"/>
         <v>4,3803</v>
       </c>
@@ -11385,7 +11393,7 @@
       <c r="H20" s="48">
         <v>3804</v>
       </c>
-      <c r="I20" t="str">
+      <c r="I20" s="88" t="str">
         <f t="shared" si="1"/>
         <v>4,3804</v>
       </c>
@@ -11407,7 +11415,7 @@
       <c r="H21" s="48">
         <v>3805</v>
       </c>
-      <c r="I21" t="str">
+      <c r="I21" s="88" t="str">
         <f t="shared" si="1"/>
         <v>4,3805</v>
       </c>
@@ -11429,7 +11437,7 @@
       <c r="H22" s="48">
         <v>3806</v>
       </c>
-      <c r="I22" t="str">
+      <c r="I22" s="88" t="str">
         <f t="shared" si="1"/>
         <v>4,3806</v>
       </c>
@@ -11451,7 +11459,7 @@
       <c r="H23" s="48">
         <v>3807</v>
       </c>
-      <c r="I23" t="str">
+      <c r="I23" s="88" t="str">
         <f t="shared" si="1"/>
         <v>4,3807</v>
       </c>
@@ -11473,7 +11481,7 @@
       <c r="H24" s="48">
         <v>3849</v>
       </c>
-      <c r="I24" t="str">
+      <c r="I24" s="88" t="str">
         <f t="shared" si="1"/>
         <v>4,3849</v>
       </c>
@@ -11495,7 +11503,7 @@
       <c r="H25" s="48" t="s">
         <v>1410</v>
       </c>
-      <c r="I25" t="str">
+      <c r="I25" s="88" t="str">
         <f t="shared" si="1"/>
         <v>5,1251</v>
       </c>
@@ -11517,7 +11525,7 @@
       <c r="H26" s="48">
         <v>1252</v>
       </c>
-      <c r="I26" t="str">
+      <c r="I26" s="88" t="str">
         <f t="shared" si="1"/>
         <v>5,1252</v>
       </c>
@@ -11539,7 +11547,7 @@
       <c r="H27" s="48">
         <v>1253</v>
       </c>
-      <c r="I27" t="str">
+      <c r="I27" s="88" t="str">
         <f t="shared" si="1"/>
         <v>5,1253</v>
       </c>
@@ -11561,7 +11569,7 @@
       <c r="H28" s="48">
         <v>1254</v>
       </c>
-      <c r="I28" t="str">
+      <c r="I28" s="88" t="str">
         <f t="shared" si="1"/>
         <v>5,1254</v>
       </c>
@@ -11583,7 +11591,7 @@
       <c r="H29" s="48">
         <v>1255</v>
       </c>
-      <c r="I29" t="str">
+      <c r="I29" s="88" t="str">
         <f t="shared" si="1"/>
         <v>5,1255</v>
       </c>
@@ -11605,7 +11613,7 @@
       <c r="H30" s="48">
         <v>1256</v>
       </c>
-      <c r="I30" t="str">
+      <c r="I30" s="88" t="str">
         <f t="shared" si="1"/>
         <v>5,1256</v>
       </c>
@@ -11627,7 +11635,7 @@
       <c r="H31" s="48">
         <v>1257</v>
       </c>
-      <c r="I31" t="str">
+      <c r="I31" s="88" t="str">
         <f t="shared" si="1"/>
         <v>5,1257</v>
       </c>
@@ -11649,7 +11657,7 @@
       <c r="H32" s="48">
         <v>1258</v>
       </c>
-      <c r="I32" t="str">
+      <c r="I32" s="88" t="str">
         <f t="shared" si="1"/>
         <v>5,1258</v>
       </c>
@@ -11671,7 +11679,7 @@
       <c r="H33" s="48">
         <v>1299</v>
       </c>
-      <c r="I33" t="str">
+      <c r="I33" s="88" t="str">
         <f t="shared" si="1"/>
         <v>5,1299</v>
       </c>
@@ -11693,7 +11701,7 @@
       <c r="H34" s="48">
         <v>4921</v>
       </c>
-      <c r="I34" t="str">
+      <c r="I34" s="88" t="str">
         <f t="shared" si="1"/>
         <v>5,4921</v>
       </c>
@@ -11715,7 +11723,7 @@
       <c r="H35" s="48">
         <v>4922</v>
       </c>
-      <c r="I35" t="str">
+      <c r="I35" s="88" t="str">
         <f t="shared" si="1"/>
         <v>5,4922</v>
       </c>
@@ -11737,7 +11745,7 @@
       <c r="H36" s="48">
         <v>4923</v>
       </c>
-      <c r="I36" t="str">
+      <c r="I36" s="88" t="str">
         <f t="shared" si="1"/>
         <v>5,4923</v>
       </c>
@@ -11759,7 +11767,7 @@
       <c r="H37" s="48">
         <v>4924</v>
       </c>
-      <c r="I37" t="str">
+      <c r="I37" s="88" t="str">
         <f t="shared" si="1"/>
         <v>5,4924</v>
       </c>
@@ -11781,7 +11789,7 @@
       <c r="H38" s="48" t="s">
         <v>1411</v>
       </c>
-      <c r="I38" t="str">
+      <c r="I38" s="88" t="str">
         <f t="shared" si="1"/>
         <v>7,3301</v>
       </c>
@@ -11803,7 +11811,7 @@
       <c r="H39" s="48">
         <v>3851</v>
       </c>
-      <c r="I39" t="str">
+      <c r="I39" s="88" t="str">
         <f t="shared" si="1"/>
         <v>7,3851</v>
       </c>
@@ -11825,7 +11833,7 @@
       <c r="H40" s="48">
         <v>3853</v>
       </c>
-      <c r="I40" t="str">
+      <c r="I40" s="88" t="str">
         <f t="shared" si="1"/>
         <v>7,3853</v>
       </c>
@@ -11847,7 +11855,7 @@
       <c r="H41" s="48">
         <v>3854</v>
       </c>
-      <c r="I41" t="str">
+      <c r="I41" s="88" t="str">
         <f t="shared" si="1"/>
         <v>7,3854</v>
       </c>
@@ -11869,7 +11877,7 @@
       <c r="H42" s="48">
         <v>3855</v>
       </c>
-      <c r="I42" t="str">
+      <c r="I42" s="88" t="str">
         <f t="shared" si="1"/>
         <v>7,3855</v>
       </c>
@@ -11891,7 +11899,7 @@
       <c r="H43" s="48">
         <v>3856</v>
       </c>
-      <c r="I43" t="str">
+      <c r="I43" s="88" t="str">
         <f t="shared" si="1"/>
         <v>7,3856</v>
       </c>
@@ -11913,7 +11921,7 @@
       <c r="H44" s="48">
         <v>3857</v>
       </c>
-      <c r="I44" t="str">
+      <c r="I44" s="88" t="str">
         <f t="shared" si="1"/>
         <v>7,3857</v>
       </c>
@@ -11935,7 +11943,7 @@
       <c r="H45" s="48">
         <v>3899</v>
       </c>
-      <c r="I45" t="str">
+      <c r="I45" s="88" t="str">
         <f t="shared" si="1"/>
         <v>7,3899</v>
       </c>
@@ -11957,7 +11965,7 @@
       <c r="H46" s="48" t="s">
         <v>1412</v>
       </c>
-      <c r="I46" t="str">
+      <c r="I46" s="88" t="str">
         <f t="shared" si="1"/>
         <v>8,1301</v>
       </c>
@@ -11979,7 +11987,7 @@
       <c r="H47" s="48">
         <v>1302</v>
       </c>
-      <c r="I47" t="str">
+      <c r="I47" s="88" t="str">
         <f t="shared" si="1"/>
         <v>8,1302</v>
       </c>
@@ -12001,7 +12009,7 @@
       <c r="H48" s="48">
         <v>1303</v>
       </c>
-      <c r="I48" t="str">
+      <c r="I48" s="88" t="str">
         <f t="shared" si="1"/>
         <v>8,1303</v>
       </c>
@@ -12023,7 +12031,7 @@
       <c r="H49" s="48">
         <v>1304</v>
       </c>
-      <c r="I49" t="str">
+      <c r="I49" s="88" t="str">
         <f t="shared" si="1"/>
         <v>8,1304</v>
       </c>
@@ -12045,7 +12053,7 @@
       <c r="H50" s="48">
         <v>1305</v>
       </c>
-      <c r="I50" t="str">
+      <c r="I50" s="88" t="str">
         <f t="shared" si="1"/>
         <v>8,1305</v>
       </c>
@@ -12067,7 +12075,7 @@
       <c r="H51" s="48">
         <v>1349</v>
       </c>
-      <c r="I51" t="str">
+      <c r="I51" s="88" t="str">
         <f t="shared" si="1"/>
         <v>8,1349</v>
       </c>
@@ -12089,7 +12097,7 @@
       <c r="H52" s="48" t="s">
         <v>1413</v>
       </c>
-      <c r="I52" t="str">
+      <c r="I52" s="88" t="str">
         <f t="shared" si="1"/>
         <v>9,1003</v>
       </c>
@@ -12111,7 +12119,7 @@
       <c r="H53" s="48">
         <v>1004</v>
       </c>
-      <c r="I53" t="str">
+      <c r="I53" s="88" t="str">
         <f t="shared" si="1"/>
         <v>9,1004</v>
       </c>
@@ -12133,7 +12141,7 @@
       <c r="H54" s="48">
         <v>1005</v>
       </c>
-      <c r="I54" t="str">
+      <c r="I54" s="88" t="str">
         <f t="shared" si="1"/>
         <v>9,1005</v>
       </c>
@@ -12155,7 +12163,7 @@
       <c r="H55" s="48">
         <v>1015</v>
       </c>
-      <c r="I55" t="str">
+      <c r="I55" s="88" t="str">
         <f t="shared" si="1"/>
         <v>9,1015</v>
       </c>
@@ -12177,7 +12185,7 @@
       <c r="H56" s="48" t="s">
         <v>1414</v>
       </c>
-      <c r="I56" t="str">
+      <c r="I56" s="88" t="str">
         <f t="shared" si="1"/>
         <v>10,2106</v>
       </c>
@@ -12199,7 +12207,7 @@
       <c r="H57" s="48">
         <v>2107</v>
       </c>
-      <c r="I57" t="str">
+      <c r="I57" s="88" t="str">
         <f t="shared" si="1"/>
         <v>10,2107</v>
       </c>
@@ -12221,7 +12229,7 @@
       <c r="H58" s="48">
         <v>2108</v>
       </c>
-      <c r="I58" t="str">
+      <c r="I58" s="88" t="str">
         <f t="shared" si="1"/>
         <v>10,2108</v>
       </c>
@@ -12243,7 +12251,7 @@
       <c r="H59" s="48">
         <v>2111</v>
       </c>
-      <c r="I59" t="str">
+      <c r="I59" s="88" t="str">
         <f t="shared" si="1"/>
         <v>10,2111</v>
       </c>
@@ -12265,7 +12273,7 @@
       <c r="H60" s="48">
         <v>2146</v>
       </c>
-      <c r="I60" t="str">
+      <c r="I60" s="88" t="str">
         <f t="shared" si="1"/>
         <v>10,2146</v>
       </c>
@@ -12287,7 +12295,7 @@
       <c r="H61" s="48">
         <v>2147</v>
       </c>
-      <c r="I61" t="str">
+      <c r="I61" s="88" t="str">
         <f t="shared" si="1"/>
         <v>10,2147</v>
       </c>
@@ -12309,7 +12317,7 @@
       <c r="H62" s="48">
         <v>2148</v>
       </c>
-      <c r="I62" t="str">
+      <c r="I62" s="88" t="str">
         <f t="shared" si="1"/>
         <v>10,2148</v>
       </c>
@@ -12331,7 +12339,7 @@
       <c r="H63" s="48">
         <v>2151</v>
       </c>
-      <c r="I63" t="str">
+      <c r="I63" s="88" t="str">
         <f t="shared" si="1"/>
         <v>10,2151</v>
       </c>
@@ -12353,7 +12361,7 @@
       <c r="H64" s="48">
         <v>2152</v>
       </c>
-      <c r="I64" t="str">
+      <c r="I64" s="88" t="str">
         <f t="shared" si="1"/>
         <v>10,2152</v>
       </c>
@@ -12375,7 +12383,7 @@
       <c r="H65" s="48">
         <v>2153</v>
       </c>
-      <c r="I65" t="str">
+      <c r="I65" s="88" t="str">
         <f t="shared" si="1"/>
         <v>10,2153</v>
       </c>
@@ -12397,7 +12405,7 @@
       <c r="H66" s="48">
         <v>2157</v>
       </c>
-      <c r="I66" t="str">
+      <c r="I66" s="88" t="str">
         <f t="shared" si="1"/>
         <v>10,2157</v>
       </c>
@@ -12419,7 +12427,7 @@
       <c r="H67" s="48">
         <v>2162</v>
       </c>
-      <c r="I67" t="str">
+      <c r="I67" s="88" t="str">
         <f t="shared" ref="I67:I130" si="3">G67&amp;","&amp;H67</f>
         <v>10,2162</v>
       </c>
@@ -12441,7 +12449,7 @@
       <c r="H68" s="48">
         <v>2163</v>
       </c>
-      <c r="I68" t="str">
+      <c r="I68" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2163</v>
       </c>
@@ -12463,7 +12471,7 @@
       <c r="H69" s="48">
         <v>2164</v>
       </c>
-      <c r="I69" t="str">
+      <c r="I69" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2164</v>
       </c>
@@ -12485,7 +12493,7 @@
       <c r="H70" s="48">
         <v>2165</v>
       </c>
-      <c r="I70" t="str">
+      <c r="I70" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2165</v>
       </c>
@@ -12507,7 +12515,7 @@
       <c r="H71" s="48">
         <v>2166</v>
       </c>
-      <c r="I71" t="str">
+      <c r="I71" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2166</v>
       </c>
@@ -12529,7 +12537,7 @@
       <c r="H72" s="48">
         <v>2167</v>
       </c>
-      <c r="I72" t="str">
+      <c r="I72" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2167</v>
       </c>
@@ -12551,7 +12559,7 @@
       <c r="H73" s="48">
         <v>2206</v>
       </c>
-      <c r="I73" t="str">
+      <c r="I73" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2206</v>
       </c>
@@ -12573,7 +12581,7 @@
       <c r="H74" s="48">
         <v>2207</v>
       </c>
-      <c r="I74" t="str">
+      <c r="I74" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2207</v>
       </c>
@@ -12595,7 +12603,7 @@
       <c r="H75" s="48">
         <v>2208</v>
       </c>
-      <c r="I75" t="str">
+      <c r="I75" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2208</v>
       </c>
@@ -12617,7 +12625,7 @@
       <c r="H76" s="48">
         <v>2211</v>
       </c>
-      <c r="I76" t="str">
+      <c r="I76" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2211</v>
       </c>
@@ -12639,7 +12647,7 @@
       <c r="H77" s="48">
         <v>2251</v>
       </c>
-      <c r="I77" t="str">
+      <c r="I77" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2251</v>
       </c>
@@ -12661,7 +12669,7 @@
       <c r="H78" s="48">
         <v>2254</v>
       </c>
-      <c r="I78" t="str">
+      <c r="I78" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2254</v>
       </c>
@@ -12683,7 +12691,7 @@
       <c r="H79" s="48">
         <v>2255</v>
       </c>
-      <c r="I79" t="str">
+      <c r="I79" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2255</v>
       </c>
@@ -12705,7 +12713,7 @@
       <c r="H80" s="48">
         <v>2262</v>
       </c>
-      <c r="I80" t="str">
+      <c r="I80" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2262</v>
       </c>
@@ -12727,7 +12735,7 @@
       <c r="H81" s="48">
         <v>2263</v>
       </c>
-      <c r="I81" t="str">
+      <c r="I81" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2263</v>
       </c>
@@ -12749,7 +12757,7 @@
       <c r="H82" s="48">
         <v>2264</v>
       </c>
-      <c r="I82" t="str">
+      <c r="I82" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2264</v>
       </c>
@@ -12771,7 +12779,7 @@
       <c r="H83" s="48">
         <v>2265</v>
       </c>
-      <c r="I83" t="str">
+      <c r="I83" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2265</v>
       </c>
@@ -12793,7 +12801,7 @@
       <c r="H84" s="48">
         <v>2266</v>
       </c>
-      <c r="I84" t="str">
+      <c r="I84" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2266</v>
       </c>
@@ -12815,7 +12823,7 @@
       <c r="H85" s="48">
         <v>2267</v>
       </c>
-      <c r="I85" t="str">
+      <c r="I85" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2267</v>
       </c>
@@ -12837,7 +12845,7 @@
       <c r="H86" s="48">
         <v>2301</v>
       </c>
-      <c r="I86" t="str">
+      <c r="I86" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2301</v>
       </c>
@@ -12859,7 +12867,7 @@
       <c r="H87" s="48">
         <v>2302</v>
       </c>
-      <c r="I87" t="str">
+      <c r="I87" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2302</v>
       </c>
@@ -12881,7 +12889,7 @@
       <c r="H88" s="48">
         <v>2303</v>
       </c>
-      <c r="I88" t="str">
+      <c r="I88" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2303</v>
       </c>
@@ -12903,7 +12911,7 @@
       <c r="H89" s="48">
         <v>2316</v>
       </c>
-      <c r="I89" t="str">
+      <c r="I89" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2316</v>
       </c>
@@ -12925,7 +12933,7 @@
       <c r="H90" s="48">
         <v>2323</v>
       </c>
-      <c r="I90" t="str">
+      <c r="I90" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2323</v>
       </c>
@@ -12947,7 +12955,7 @@
       <c r="H91" s="48">
         <v>2351</v>
       </c>
-      <c r="I91" t="str">
+      <c r="I91" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2351</v>
       </c>
@@ -12969,7 +12977,7 @@
       <c r="H92" s="48">
         <v>2352</v>
       </c>
-      <c r="I92" t="str">
+      <c r="I92" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2352</v>
       </c>
@@ -12991,7 +12999,7 @@
       <c r="H93" s="48">
         <v>2353</v>
       </c>
-      <c r="I93" t="str">
+      <c r="I93" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2353</v>
       </c>
@@ -13013,7 +13021,7 @@
       <c r="H94" s="48">
         <v>2361</v>
       </c>
-      <c r="I94" t="str">
+      <c r="I94" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2361</v>
       </c>
@@ -13035,7 +13043,7 @@
       <c r="H95" s="48">
         <v>2362</v>
       </c>
-      <c r="I95" t="str">
+      <c r="I95" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2362</v>
       </c>
@@ -13057,7 +13065,7 @@
       <c r="H96" s="48">
         <v>2363</v>
       </c>
-      <c r="I96" t="str">
+      <c r="I96" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2363</v>
       </c>
@@ -13079,7 +13087,7 @@
       <c r="H97" s="48">
         <v>2364</v>
       </c>
-      <c r="I97" t="str">
+      <c r="I97" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2364</v>
       </c>
@@ -13101,7 +13109,7 @@
       <c r="H98" s="48">
         <v>2365</v>
       </c>
-      <c r="I98" t="str">
+      <c r="I98" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2365</v>
       </c>
@@ -13123,7 +13131,7 @@
       <c r="H99" s="48">
         <v>2366</v>
       </c>
-      <c r="I99" t="str">
+      <c r="I99" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2366</v>
       </c>
@@ -13145,7 +13153,7 @@
       <c r="H100" s="48">
         <v>2367</v>
       </c>
-      <c r="I100" t="str">
+      <c r="I100" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2367</v>
       </c>
@@ -13167,7 +13175,7 @@
       <c r="H101" s="48">
         <v>2368</v>
       </c>
-      <c r="I101" t="str">
+      <c r="I101" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2368</v>
       </c>
@@ -13189,7 +13197,7 @@
       <c r="H102" s="48">
         <v>2404</v>
       </c>
-      <c r="I102" t="str">
+      <c r="I102" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2404</v>
       </c>
@@ -13211,7 +13219,7 @@
       <c r="H103" s="48">
         <v>2416</v>
       </c>
-      <c r="I103" t="str">
+      <c r="I103" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2416</v>
       </c>
@@ -13233,7 +13241,7 @@
       <c r="H104" s="48">
         <v>2418</v>
       </c>
-      <c r="I104" t="str">
+      <c r="I104" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2418</v>
       </c>
@@ -13255,7 +13263,7 @@
       <c r="H105" s="48">
         <v>2421</v>
       </c>
-      <c r="I105" t="str">
+      <c r="I105" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2421</v>
       </c>
@@ -13277,7 +13285,7 @@
       <c r="H106" s="48">
         <v>2422</v>
       </c>
-      <c r="I106" t="str">
+      <c r="I106" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2422</v>
       </c>
@@ -13299,7 +13307,7 @@
       <c r="H107" s="48">
         <v>2452</v>
       </c>
-      <c r="I107" t="str">
+      <c r="I107" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2452</v>
       </c>
@@ -13321,7 +13329,7 @@
       <c r="H108" s="48">
         <v>2453</v>
       </c>
-      <c r="I108" t="str">
+      <c r="I108" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2453</v>
       </c>
@@ -13343,7 +13351,7 @@
       <c r="H109" s="48">
         <v>2455</v>
       </c>
-      <c r="I109" t="str">
+      <c r="I109" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2455</v>
       </c>
@@ -13365,7 +13373,7 @@
       <c r="H110" s="48">
         <v>2456</v>
       </c>
-      <c r="I110" t="str">
+      <c r="I110" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2456</v>
       </c>
@@ -13387,7 +13395,7 @@
       <c r="H111" s="48">
         <v>2457</v>
       </c>
-      <c r="I111" t="str">
+      <c r="I111" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2457</v>
       </c>
@@ -13409,7 +13417,7 @@
       <c r="H112" s="48">
         <v>2458</v>
       </c>
-      <c r="I112" t="str">
+      <c r="I112" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2458</v>
       </c>
@@ -13431,7 +13439,7 @@
       <c r="H113" s="48">
         <v>2504</v>
       </c>
-      <c r="I113" t="str">
+      <c r="I113" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2504</v>
       </c>
@@ -13453,7 +13461,7 @@
       <c r="H114" s="48">
         <v>2505</v>
       </c>
-      <c r="I114" t="str">
+      <c r="I114" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2505</v>
       </c>
@@ -13475,7 +13483,7 @@
       <c r="H115" s="48">
         <v>2506</v>
       </c>
-      <c r="I115" t="str">
+      <c r="I115" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2506</v>
       </c>
@@ -13497,7 +13505,7 @@
       <c r="H116" s="48">
         <v>2507</v>
       </c>
-      <c r="I116" t="str">
+      <c r="I116" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2507</v>
       </c>
@@ -13519,7 +13527,7 @@
       <c r="H117" s="48">
         <v>2508</v>
       </c>
-      <c r="I117" t="str">
+      <c r="I117" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2508</v>
       </c>
@@ -13541,7 +13549,7 @@
       <c r="H118" s="48">
         <v>2511</v>
       </c>
-      <c r="I118" t="str">
+      <c r="I118" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2511</v>
       </c>
@@ -13563,7 +13571,7 @@
       <c r="H119" s="48">
         <v>2512</v>
       </c>
-      <c r="I119" t="str">
+      <c r="I119" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2512</v>
       </c>
@@ -13585,7 +13593,7 @@
       <c r="H120" s="48">
         <v>2513</v>
       </c>
-      <c r="I120" t="str">
+      <c r="I120" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2513</v>
       </c>
@@ -13607,7 +13615,7 @@
       <c r="H121" s="48">
         <v>2561</v>
       </c>
-      <c r="I121" t="str">
+      <c r="I121" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2561</v>
       </c>
@@ -13629,7 +13637,7 @@
       <c r="H122" s="48">
         <v>2565</v>
       </c>
-      <c r="I122" t="str">
+      <c r="I122" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2565</v>
       </c>
@@ -13651,7 +13659,7 @@
       <c r="H123" s="48">
         <v>2566</v>
       </c>
-      <c r="I123" t="str">
+      <c r="I123" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2566</v>
       </c>
@@ -13673,7 +13681,7 @@
       <c r="H124" s="48">
         <v>2567</v>
       </c>
-      <c r="I124" t="str">
+      <c r="I124" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2567</v>
       </c>
@@ -13695,7 +13703,7 @@
       <c r="H125" s="48">
         <v>2618</v>
       </c>
-      <c r="I125" t="str">
+      <c r="I125" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2618</v>
       </c>
@@ -13717,7 +13725,7 @@
       <c r="H126" s="48">
         <v>2624</v>
       </c>
-      <c r="I126" t="str">
+      <c r="I126" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2624</v>
       </c>
@@ -13739,7 +13747,7 @@
       <c r="H127" s="48">
         <v>2625</v>
       </c>
-      <c r="I127" t="str">
+      <c r="I127" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2625</v>
       </c>
@@ -13761,7 +13769,7 @@
       <c r="H128" s="48">
         <v>2626</v>
       </c>
-      <c r="I128" t="str">
+      <c r="I128" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2626</v>
       </c>
@@ -13783,7 +13791,7 @@
       <c r="H129" s="48">
         <v>2627</v>
       </c>
-      <c r="I129" t="str">
+      <c r="I129" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2627</v>
       </c>
@@ -13805,7 +13813,7 @@
       <c r="H130" s="48">
         <v>2628</v>
       </c>
-      <c r="I130" t="str">
+      <c r="I130" s="88" t="str">
         <f t="shared" si="3"/>
         <v>10,2628</v>
       </c>
@@ -13827,7 +13835,7 @@
       <c r="H131" s="48">
         <v>2631</v>
       </c>
-      <c r="I131" t="str">
+      <c r="I131" s="88" t="str">
         <f t="shared" ref="I131:I194" si="5">G131&amp;","&amp;H131</f>
         <v>10,2631</v>
       </c>
@@ -13849,7 +13857,7 @@
       <c r="H132" s="48">
         <v>2632</v>
       </c>
-      <c r="I132" t="str">
+      <c r="I132" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2632</v>
       </c>
@@ -13871,7 +13879,7 @@
       <c r="H133" s="48">
         <v>2633</v>
       </c>
-      <c r="I133" t="str">
+      <c r="I133" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2633</v>
       </c>
@@ -13893,7 +13901,7 @@
       <c r="H134" s="48">
         <v>2634</v>
       </c>
-      <c r="I134" t="str">
+      <c r="I134" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2634</v>
       </c>
@@ -13915,7 +13923,7 @@
       <c r="H135" s="48">
         <v>2635</v>
       </c>
-      <c r="I135" t="str">
+      <c r="I135" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2635</v>
       </c>
@@ -13937,7 +13945,7 @@
       <c r="H136" s="48">
         <v>2636</v>
       </c>
-      <c r="I136" t="str">
+      <c r="I136" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2636</v>
       </c>
@@ -13959,7 +13967,7 @@
       <c r="H137" s="48">
         <v>2637</v>
       </c>
-      <c r="I137" t="str">
+      <c r="I137" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2637</v>
       </c>
@@ -13981,7 +13989,7 @@
       <c r="H138" s="48">
         <v>2638</v>
       </c>
-      <c r="I138" t="str">
+      <c r="I138" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2638</v>
       </c>
@@ -14003,7 +14011,7 @@
       <c r="H139" s="48">
         <v>2652</v>
       </c>
-      <c r="I139" t="str">
+      <c r="I139" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2652</v>
       </c>
@@ -14025,7 +14033,7 @@
       <c r="H140" s="48">
         <v>2663</v>
       </c>
-      <c r="I140" t="str">
+      <c r="I140" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2663</v>
       </c>
@@ -14047,7 +14055,7 @@
       <c r="H141" s="48">
         <v>2664</v>
       </c>
-      <c r="I141" t="str">
+      <c r="I141" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2664</v>
       </c>
@@ -14069,7 +14077,7 @@
       <c r="H142" s="48">
         <v>2665</v>
       </c>
-      <c r="I142" t="str">
+      <c r="I142" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2665</v>
       </c>
@@ -14091,7 +14099,7 @@
       <c r="H143" s="48">
         <v>2701</v>
       </c>
-      <c r="I143" t="str">
+      <c r="I143" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2701</v>
       </c>
@@ -14113,7 +14121,7 @@
       <c r="H144" s="48">
         <v>2703</v>
       </c>
-      <c r="I144" t="str">
+      <c r="I144" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2703</v>
       </c>
@@ -14135,7 +14143,7 @@
       <c r="H145" s="48">
         <v>2706</v>
       </c>
-      <c r="I145" t="str">
+      <c r="I145" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2706</v>
       </c>
@@ -14157,7 +14165,7 @@
       <c r="H146" s="48">
         <v>2707</v>
       </c>
-      <c r="I146" t="str">
+      <c r="I146" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2707</v>
       </c>
@@ -14179,7 +14187,7 @@
       <c r="H147" s="48">
         <v>2715</v>
       </c>
-      <c r="I147" t="str">
+      <c r="I147" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2715</v>
       </c>
@@ -14201,7 +14209,7 @@
       <c r="H148" s="48">
         <v>2716</v>
       </c>
-      <c r="I148" t="str">
+      <c r="I148" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2716</v>
       </c>
@@ -14223,7 +14231,7 @@
       <c r="H149" s="48">
         <v>2717</v>
       </c>
-      <c r="I149" t="str">
+      <c r="I149" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2717</v>
       </c>
@@ -14245,7 +14253,7 @@
       <c r="H150" s="48">
         <v>2718</v>
       </c>
-      <c r="I150" t="str">
+      <c r="I150" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2718</v>
       </c>
@@ -14267,7 +14275,7 @@
       <c r="H151" s="48">
         <v>2721</v>
       </c>
-      <c r="I151" t="str">
+      <c r="I151" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2721</v>
       </c>
@@ -14289,7 +14297,7 @@
       <c r="H152" s="48">
         <v>2722</v>
       </c>
-      <c r="I152" t="str">
+      <c r="I152" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2722</v>
       </c>
@@ -14311,7 +14319,7 @@
       <c r="H153" s="48">
         <v>2751</v>
       </c>
-      <c r="I153" t="str">
+      <c r="I153" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2751</v>
       </c>
@@ -14333,7 +14341,7 @@
       <c r="H154" s="48">
         <v>2752</v>
       </c>
-      <c r="I154" t="str">
+      <c r="I154" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2752</v>
       </c>
@@ -14355,7 +14363,7 @@
       <c r="H155" s="48">
         <v>2763</v>
       </c>
-      <c r="I155" t="str">
+      <c r="I155" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2763</v>
       </c>
@@ -14377,7 +14385,7 @@
       <c r="H156" s="48">
         <v>2766</v>
       </c>
-      <c r="I156" t="str">
+      <c r="I156" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2766</v>
       </c>
@@ -14399,7 +14407,7 @@
       <c r="H157" s="48">
         <v>2767</v>
       </c>
-      <c r="I157" t="str">
+      <c r="I157" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2767</v>
       </c>
@@ -14421,7 +14429,7 @@
       <c r="H158" s="48">
         <v>2768</v>
       </c>
-      <c r="I158" t="str">
+      <c r="I158" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2768</v>
       </c>
@@ -14443,7 +14451,7 @@
       <c r="H159" s="48">
         <v>2771</v>
       </c>
-      <c r="I159" t="str">
+      <c r="I159" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2771</v>
       </c>
@@ -14465,7 +14473,7 @@
       <c r="H160" s="48">
         <v>2772</v>
       </c>
-      <c r="I160" t="str">
+      <c r="I160" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2772</v>
       </c>
@@ -14487,7 +14495,7 @@
       <c r="H161" s="48">
         <v>2773</v>
       </c>
-      <c r="I161" t="str">
+      <c r="I161" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2773</v>
       </c>
@@ -14509,7 +14517,7 @@
       <c r="H162" s="48">
         <v>2774</v>
       </c>
-      <c r="I162" t="str">
+      <c r="I162" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2774</v>
       </c>
@@ -14531,7 +14539,7 @@
       <c r="H163" s="48">
         <v>2802</v>
       </c>
-      <c r="I163" t="str">
+      <c r="I163" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2802</v>
       </c>
@@ -14553,7 +14561,7 @@
       <c r="H164" s="48">
         <v>2803</v>
       </c>
-      <c r="I164" t="str">
+      <c r="I164" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2803</v>
       </c>
@@ -14575,7 +14583,7 @@
       <c r="H165" s="48">
         <v>2804</v>
       </c>
-      <c r="I165" t="str">
+      <c r="I165" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2804</v>
       </c>
@@ -14597,7 +14605,7 @@
       <c r="H166" s="48">
         <v>2805</v>
       </c>
-      <c r="I166" t="str">
+      <c r="I166" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2805</v>
       </c>
@@ -14619,7 +14627,7 @@
       <c r="H167" s="48">
         <v>2815</v>
       </c>
-      <c r="I167" t="str">
+      <c r="I167" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2815</v>
       </c>
@@ -14641,7 +14649,7 @@
       <c r="H168" s="48">
         <v>2824</v>
       </c>
-      <c r="I168" t="str">
+      <c r="I168" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2824</v>
       </c>
@@ -14663,7 +14671,7 @@
       <c r="H169" s="48">
         <v>2825</v>
       </c>
-      <c r="I169" t="str">
+      <c r="I169" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2825</v>
       </c>
@@ -14685,7 +14693,7 @@
       <c r="H170" s="48">
         <v>2826</v>
       </c>
-      <c r="I170" t="str">
+      <c r="I170" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2826</v>
       </c>
@@ -14707,7 +14715,7 @@
       <c r="H171" s="48">
         <v>2827</v>
       </c>
-      <c r="I171" t="str">
+      <c r="I171" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2827</v>
       </c>
@@ -14729,7 +14737,7 @@
       <c r="H172" s="48">
         <v>2828</v>
       </c>
-      <c r="I172" t="str">
+      <c r="I172" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2828</v>
       </c>
@@ -14751,7 +14759,7 @@
       <c r="H173" s="48">
         <v>2831</v>
       </c>
-      <c r="I173" t="str">
+      <c r="I173" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2831</v>
       </c>
@@ -14773,7 +14781,7 @@
       <c r="H174" s="48">
         <v>2852</v>
       </c>
-      <c r="I174" t="str">
+      <c r="I174" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2852</v>
       </c>
@@ -14795,7 +14803,7 @@
       <c r="H175" s="48">
         <v>2853</v>
       </c>
-      <c r="I175" t="str">
+      <c r="I175" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2853</v>
       </c>
@@ -14817,7 +14825,7 @@
       <c r="H176" s="48">
         <v>2854</v>
       </c>
-      <c r="I176" t="str">
+      <c r="I176" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2854</v>
       </c>
@@ -14839,7 +14847,7 @@
       <c r="H177" s="48">
         <v>2861</v>
       </c>
-      <c r="I177" t="str">
+      <c r="I177" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2861</v>
       </c>
@@ -14861,7 +14869,7 @@
       <c r="H178" s="48">
         <v>2862</v>
       </c>
-      <c r="I178" t="str">
+      <c r="I178" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2862</v>
       </c>
@@ -14883,7 +14891,7 @@
       <c r="H179" s="48">
         <v>2863</v>
       </c>
-      <c r="I179" t="str">
+      <c r="I179" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2863</v>
       </c>
@@ -14905,7 +14913,7 @@
       <c r="H180" s="48">
         <v>2864</v>
       </c>
-      <c r="I180" t="str">
+      <c r="I180" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2864</v>
       </c>
@@ -14927,7 +14935,7 @@
       <c r="H181" s="48">
         <v>2865</v>
       </c>
-      <c r="I181" t="str">
+      <c r="I181" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2865</v>
       </c>
@@ -14949,7 +14957,7 @@
       <c r="H182" s="48">
         <v>2866</v>
       </c>
-      <c r="I182" t="str">
+      <c r="I182" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2866</v>
       </c>
@@ -14971,7 +14979,7 @@
       <c r="H183" s="48">
         <v>2867</v>
       </c>
-      <c r="I183" t="str">
+      <c r="I183" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2867</v>
       </c>
@@ -14993,7 +15001,7 @@
       <c r="H184" s="48">
         <v>2868</v>
       </c>
-      <c r="I184" t="str">
+      <c r="I184" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2868</v>
       </c>
@@ -15015,7 +15023,7 @@
       <c r="H185" s="48">
         <v>2871</v>
       </c>
-      <c r="I185" t="str">
+      <c r="I185" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2871</v>
       </c>
@@ -15037,7 +15045,7 @@
       <c r="H186" s="48">
         <v>2872</v>
       </c>
-      <c r="I186" t="str">
+      <c r="I186" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,2872</v>
       </c>
@@ -15059,7 +15067,7 @@
       <c r="H187" s="48">
         <v>3001</v>
       </c>
-      <c r="I187" t="str">
+      <c r="I187" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,3001</v>
       </c>
@@ -15081,7 +15089,7 @@
       <c r="H188" s="48">
         <v>3002</v>
       </c>
-      <c r="I188" t="str">
+      <c r="I188" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,3002</v>
       </c>
@@ -15103,7 +15111,7 @@
       <c r="H189" s="48">
         <v>3007</v>
       </c>
-      <c r="I189" t="str">
+      <c r="I189" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,3007</v>
       </c>
@@ -15125,7 +15133,7 @@
       <c r="H190" s="48">
         <v>3064</v>
       </c>
-      <c r="I190" t="str">
+      <c r="I190" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,3064</v>
       </c>
@@ -15147,7 +15155,7 @@
       <c r="H191" s="48">
         <v>3065</v>
       </c>
-      <c r="I191" t="str">
+      <c r="I191" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,3065</v>
       </c>
@@ -15169,7 +15177,7 @@
       <c r="H192" s="48">
         <v>3066</v>
       </c>
-      <c r="I192" t="str">
+      <c r="I192" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,3066</v>
       </c>
@@ -15191,7 +15199,7 @@
       <c r="H193" s="48">
         <v>3067</v>
       </c>
-      <c r="I193" t="str">
+      <c r="I193" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,3067</v>
       </c>
@@ -15213,7 +15221,7 @@
       <c r="H194" s="48">
         <v>3068</v>
       </c>
-      <c r="I194" t="str">
+      <c r="I194" s="88" t="str">
         <f t="shared" si="5"/>
         <v>10,3068</v>
       </c>
@@ -15235,7 +15243,7 @@
       <c r="H195" s="48">
         <v>3071</v>
       </c>
-      <c r="I195" t="str">
+      <c r="I195" s="88" t="str">
         <f t="shared" ref="I195:I258" si="7">G195&amp;","&amp;H195</f>
         <v>10,3071</v>
       </c>
@@ -15257,7 +15265,7 @@
       <c r="H196" s="48">
         <v>3072</v>
       </c>
-      <c r="I196" t="str">
+      <c r="I196" s="88" t="str">
         <f t="shared" si="7"/>
         <v>10,3072</v>
       </c>
@@ -15279,7 +15287,7 @@
       <c r="H197" s="48">
         <v>3073</v>
       </c>
-      <c r="I197" t="str">
+      <c r="I197" s="88" t="str">
         <f t="shared" si="7"/>
         <v>10,3073</v>
       </c>
@@ -15301,7 +15309,7 @@
       <c r="H198" s="48">
         <v>3074</v>
       </c>
-      <c r="I198" t="str">
+      <c r="I198" s="88" t="str">
         <f t="shared" si="7"/>
         <v>10,3074</v>
       </c>
@@ -15323,7 +15331,7 @@
       <c r="H199" s="48" t="s">
         <v>1415</v>
       </c>
-      <c r="I199" t="str">
+      <c r="I199" s="88" t="str">
         <f t="shared" si="7"/>
         <v>11,1601</v>
       </c>
@@ -15345,7 +15353,7 @@
       <c r="H200" s="48">
         <v>1602</v>
       </c>
-      <c r="I200" t="str">
+      <c r="I200" s="88" t="str">
         <f t="shared" si="7"/>
         <v>11,1602</v>
       </c>
@@ -15367,7 +15375,7 @@
       <c r="H201" s="48">
         <v>1649</v>
       </c>
-      <c r="I201" t="str">
+      <c r="I201" s="88" t="str">
         <f t="shared" si="7"/>
         <v>11,1649</v>
       </c>
@@ -15389,7 +15397,7 @@
       <c r="H202" s="48" t="s">
         <v>1416</v>
       </c>
-      <c r="I202" t="str">
+      <c r="I202" s="88" t="str">
         <f t="shared" si="7"/>
         <v>12,1401</v>
       </c>
@@ -15411,7 +15419,7 @@
       <c r="H203" s="48">
         <v>1405</v>
       </c>
-      <c r="I203" t="str">
+      <c r="I203" s="88" t="str">
         <f t="shared" si="7"/>
         <v>12,1405</v>
       </c>
@@ -15433,7 +15441,7 @@
       <c r="H204" s="48">
         <v>1406</v>
       </c>
-      <c r="I204" t="str">
+      <c r="I204" s="88" t="str">
         <f t="shared" si="7"/>
         <v>12,1406</v>
       </c>
@@ -15455,7 +15463,7 @@
       <c r="H205" s="48">
         <v>1407</v>
       </c>
-      <c r="I205" t="str">
+      <c r="I205" s="88" t="str">
         <f t="shared" si="7"/>
         <v>12,1407</v>
       </c>
@@ -15477,7 +15485,7 @@
       <c r="H206" s="48">
         <v>1408</v>
       </c>
-      <c r="I206" t="str">
+      <c r="I206" s="88" t="str">
         <f t="shared" si="7"/>
         <v>12,1408</v>
       </c>
@@ -15499,7 +15507,7 @@
       <c r="H207" s="48">
         <v>1411</v>
       </c>
-      <c r="I207" t="str">
+      <c r="I207" s="88" t="str">
         <f t="shared" si="7"/>
         <v>12,1411</v>
       </c>
@@ -15521,7 +15529,7 @@
       <c r="H208" s="48">
         <v>1449</v>
       </c>
-      <c r="I208" t="str">
+      <c r="I208" s="88" t="str">
         <f t="shared" si="7"/>
         <v>12,1449</v>
       </c>
@@ -15543,7 +15551,7 @@
       <c r="H209" s="48" t="s">
         <v>1417</v>
       </c>
-      <c r="I209" t="str">
+      <c r="I209" s="88" t="str">
         <f t="shared" si="7"/>
         <v>13,1551</v>
       </c>
@@ -15565,7 +15573,7 @@
       <c r="H210" s="48">
         <v>1552</v>
       </c>
-      <c r="I210" t="str">
+      <c r="I210" s="88" t="str">
         <f t="shared" si="7"/>
         <v>13,1552</v>
       </c>
@@ -15587,7 +15595,7 @@
       <c r="H211" s="48">
         <v>1553</v>
       </c>
-      <c r="I211" t="str">
+      <c r="I211" s="88" t="str">
         <f t="shared" si="7"/>
         <v>13,1553</v>
       </c>
@@ -15609,7 +15617,7 @@
       <c r="H212" s="48">
         <v>1555</v>
       </c>
-      <c r="I212" t="str">
+      <c r="I212" s="88" t="str">
         <f t="shared" si="7"/>
         <v>13,1555</v>
       </c>
@@ -15631,7 +15639,7 @@
       <c r="H213" s="48">
         <v>1556</v>
       </c>
-      <c r="I213" t="str">
+      <c r="I213" s="88" t="str">
         <f t="shared" si="7"/>
         <v>13,1556</v>
       </c>
@@ -15653,7 +15661,7 @@
       <c r="H214" s="48">
         <v>1557</v>
       </c>
-      <c r="I214" t="str">
+      <c r="I214" s="88" t="str">
         <f t="shared" si="7"/>
         <v>13,1557</v>
       </c>
@@ -15675,7 +15683,7 @@
       <c r="H215" s="48">
         <v>1558</v>
       </c>
-      <c r="I215" t="str">
+      <c r="I215" s="88" t="str">
         <f t="shared" si="7"/>
         <v>13,1558</v>
       </c>
@@ -15697,7 +15705,7 @@
       <c r="H216" s="48">
         <v>1561</v>
       </c>
-      <c r="I216" t="str">
+      <c r="I216" s="88" t="str">
         <f t="shared" si="7"/>
         <v>13,1561</v>
       </c>
@@ -15719,7 +15727,7 @@
       <c r="H217" s="48">
         <v>1562</v>
       </c>
-      <c r="I217" t="str">
+      <c r="I217" s="88" t="str">
         <f t="shared" si="7"/>
         <v>13,1562</v>
       </c>
@@ -15741,7 +15749,7 @@
       <c r="H218" s="48">
         <v>1563</v>
       </c>
-      <c r="I218" t="str">
+      <c r="I218" s="88" t="str">
         <f t="shared" si="7"/>
         <v>13,1563</v>
       </c>
@@ -15763,7 +15771,7 @@
       <c r="H219" s="48">
         <v>1599</v>
       </c>
-      <c r="I219" t="str">
+      <c r="I219" s="88" t="str">
         <f t="shared" si="7"/>
         <v>13,1599</v>
       </c>
@@ -15785,7 +15793,7 @@
       <c r="H220" s="48">
         <v>4927</v>
       </c>
-      <c r="I220" t="str">
+      <c r="I220" s="88" t="str">
         <f t="shared" si="7"/>
         <v>13,4927</v>
       </c>
@@ -15807,7 +15815,7 @@
       <c r="H221" s="48" t="s">
         <v>1418</v>
       </c>
-      <c r="I221" t="str">
+      <c r="I221" s="88" t="str">
         <f t="shared" si="7"/>
         <v>14,1001</v>
       </c>
@@ -15829,7 +15837,7 @@
       <c r="H222" s="48">
         <v>1006</v>
       </c>
-      <c r="I222" t="str">
+      <c r="I222" s="88" t="str">
         <f t="shared" si="7"/>
         <v>14,1006</v>
       </c>
@@ -15851,7 +15859,7 @@
       <c r="H223" s="48">
         <v>1007</v>
       </c>
-      <c r="I223" t="str">
+      <c r="I223" s="88" t="str">
         <f t="shared" si="7"/>
         <v>14,1007</v>
       </c>
@@ -15873,7 +15881,7 @@
       <c r="H224" s="48">
         <v>1008</v>
       </c>
-      <c r="I224" t="str">
+      <c r="I224" s="88" t="str">
         <f t="shared" si="7"/>
         <v>14,1008</v>
       </c>
@@ -15895,7 +15903,7 @@
       <c r="H225" s="48">
         <v>1012</v>
       </c>
-      <c r="I225" t="str">
+      <c r="I225" s="88" t="str">
         <f t="shared" si="7"/>
         <v>14,1012</v>
       </c>
@@ -15917,7 +15925,7 @@
       <c r="H226" s="48">
         <v>1014</v>
       </c>
-      <c r="I226" t="str">
+      <c r="I226" s="88" t="str">
         <f t="shared" si="7"/>
         <v>14,1014</v>
       </c>
@@ -15939,7 +15947,7 @@
       <c r="H227" s="48">
         <v>1049</v>
       </c>
-      <c r="I227" t="str">
+      <c r="I227" s="88" t="str">
         <f t="shared" si="7"/>
         <v>14,1049</v>
       </c>
@@ -15961,7 +15969,7 @@
       <c r="H228" s="48">
         <v>4917</v>
       </c>
-      <c r="I228" t="str">
+      <c r="I228" s="88" t="str">
         <f t="shared" si="7"/>
         <v>14,4917</v>
       </c>
@@ -15983,7 +15991,7 @@
       <c r="H229" s="48" t="s">
         <v>1419</v>
       </c>
-      <c r="I229" t="str">
+      <c r="I229" s="88" t="str">
         <f t="shared" si="7"/>
         <v>15,1052</v>
       </c>
@@ -16005,7 +16013,7 @@
       <c r="H230" s="48">
         <v>1053</v>
       </c>
-      <c r="I230" t="str">
+      <c r="I230" s="88" t="str">
         <f t="shared" si="7"/>
         <v>15,1053</v>
       </c>
@@ -16027,7 +16035,7 @@
       <c r="H231" s="48">
         <v>1055</v>
       </c>
-      <c r="I231" t="str">
+      <c r="I231" s="88" t="str">
         <f t="shared" si="7"/>
         <v>15,1055</v>
       </c>
@@ -16049,7 +16057,7 @@
       <c r="H232" s="48">
         <v>1056</v>
       </c>
-      <c r="I232" t="str">
+      <c r="I232" s="88" t="str">
         <f t="shared" si="7"/>
         <v>15,1056</v>
       </c>
@@ -16071,7 +16079,7 @@
       <c r="H233" s="48">
         <v>1099</v>
       </c>
-      <c r="I233" t="str">
+      <c r="I233" s="88" t="str">
         <f t="shared" si="7"/>
         <v>15,1099</v>
       </c>
@@ -16093,7 +16101,7 @@
       <c r="H234" s="48">
         <v>4918</v>
       </c>
-      <c r="I234" t="str">
+      <c r="I234" s="88" t="str">
         <f t="shared" si="7"/>
         <v>15,4918</v>
       </c>
@@ -16115,7 +16123,7 @@
       <c r="H235" s="48" t="s">
         <v>1420</v>
       </c>
-      <c r="I235" t="str">
+      <c r="I235" s="88" t="str">
         <f t="shared" si="7"/>
         <v>16,1751</v>
       </c>
@@ -16137,7 +16145,7 @@
       <c r="H236" s="48">
         <v>1753</v>
       </c>
-      <c r="I236" t="str">
+      <c r="I236" s="88" t="str">
         <f t="shared" si="7"/>
         <v>16,1753</v>
       </c>
@@ -16159,7 +16167,7 @@
       <c r="H237" s="48">
         <v>1754</v>
       </c>
-      <c r="I237" t="str">
+      <c r="I237" s="88" t="str">
         <f t="shared" si="7"/>
         <v>16,1754</v>
       </c>
@@ -16181,7 +16189,7 @@
       <c r="H238" s="48">
         <v>1755</v>
       </c>
-      <c r="I238" t="str">
+      <c r="I238" s="88" t="str">
         <f t="shared" si="7"/>
         <v>16,1755</v>
       </c>
@@ -16203,7 +16211,7 @@
       <c r="H239" s="48">
         <v>1756</v>
       </c>
-      <c r="I239" t="str">
+      <c r="I239" s="88" t="str">
         <f t="shared" si="7"/>
         <v>16,1756</v>
       </c>
@@ -16225,7 +16233,7 @@
       <c r="H240" s="48">
         <v>1757</v>
       </c>
-      <c r="I240" t="str">
+      <c r="I240" s="88" t="str">
         <f t="shared" si="7"/>
         <v>16,1757</v>
       </c>
@@ -16247,7 +16255,7 @@
       <c r="H241" s="48">
         <v>1758</v>
       </c>
-      <c r="I241" t="str">
+      <c r="I241" s="88" t="str">
         <f t="shared" si="7"/>
         <v>16,1758</v>
       </c>
@@ -16269,7 +16277,7 @@
       <c r="H242" s="48">
         <v>1762</v>
       </c>
-      <c r="I242" t="str">
+      <c r="I242" s="88" t="str">
         <f t="shared" si="7"/>
         <v>16,1762</v>
       </c>
@@ -16291,7 +16299,7 @@
       <c r="H243" s="48">
         <v>1763</v>
       </c>
-      <c r="I243" t="str">
+      <c r="I243" s="88" t="str">
         <f t="shared" si="7"/>
         <v>16,1763</v>
       </c>
@@ -16313,7 +16321,7 @@
       <c r="H244" s="48">
         <v>1764</v>
       </c>
-      <c r="I244" t="str">
+      <c r="I244" s="88" t="str">
         <f t="shared" si="7"/>
         <v>16,1764</v>
       </c>
@@ -16335,7 +16343,7 @@
       <c r="H245" s="48">
         <v>1765</v>
       </c>
-      <c r="I245" t="str">
+      <c r="I245" s="88" t="str">
         <f t="shared" si="7"/>
         <v>16,1765</v>
       </c>
@@ -16357,7 +16365,7 @@
       <c r="H246" s="48">
         <v>1766</v>
       </c>
-      <c r="I246" t="str">
+      <c r="I246" s="88" t="str">
         <f t="shared" si="7"/>
         <v>16,1766</v>
       </c>
@@ -16379,7 +16387,7 @@
       <c r="H247" s="48">
         <v>4934</v>
       </c>
-      <c r="I247" t="str">
+      <c r="I247" s="88" t="str">
         <f t="shared" si="7"/>
         <v>16,4934</v>
       </c>
@@ -16401,7 +16409,7 @@
       <c r="H248" s="48" t="s">
         <v>1421</v>
       </c>
-      <c r="I248" t="str">
+      <c r="I248" s="88" t="str">
         <f t="shared" si="7"/>
         <v>17,3601</v>
       </c>
@@ -16423,7 +16431,7 @@
       <c r="H249" s="48">
         <v>3602</v>
       </c>
-      <c r="I249" t="str">
+      <c r="I249" s="88" t="str">
         <f t="shared" si="7"/>
         <v>17,3602</v>
       </c>
@@ -16445,7 +16453,7 @@
       <c r="H250" s="48">
         <v>3603</v>
       </c>
-      <c r="I250" t="str">
+      <c r="I250" s="88" t="str">
         <f t="shared" si="7"/>
         <v>17,3603</v>
       </c>
@@ -16467,7 +16475,7 @@
       <c r="H251" s="48">
         <v>3604</v>
       </c>
-      <c r="I251" t="str">
+      <c r="I251" s="88" t="str">
         <f t="shared" si="7"/>
         <v>17,3604</v>
       </c>
@@ -16489,7 +16497,7 @@
       <c r="H252" s="48">
         <v>3605</v>
       </c>
-      <c r="I252" t="str">
+      <c r="I252" s="88" t="str">
         <f t="shared" si="7"/>
         <v>17,3605</v>
       </c>
@@ -16511,7 +16519,7 @@
       <c r="H253" s="48">
         <v>3606</v>
       </c>
-      <c r="I253" t="str">
+      <c r="I253" s="88" t="str">
         <f t="shared" si="7"/>
         <v>17,3606</v>
       </c>
@@ -16533,7 +16541,7 @@
       <c r="H254" s="48">
         <v>3607</v>
       </c>
-      <c r="I254" t="str">
+      <c r="I254" s="88" t="str">
         <f t="shared" si="7"/>
         <v>17,3607</v>
       </c>
@@ -16555,7 +16563,7 @@
       <c r="H255" s="48">
         <v>3608</v>
       </c>
-      <c r="I255" t="str">
+      <c r="I255" s="88" t="str">
         <f t="shared" si="7"/>
         <v>17,3608</v>
       </c>
@@ -16577,7 +16585,7 @@
       <c r="H256" s="48">
         <v>3649</v>
       </c>
-      <c r="I256" t="str">
+      <c r="I256" s="88" t="str">
         <f t="shared" si="7"/>
         <v>17,3649</v>
       </c>
@@ -16599,7 +16607,7 @@
       <c r="H257" s="48">
         <v>1701</v>
       </c>
-      <c r="I257" t="str">
+      <c r="I257" s="88" t="str">
         <f t="shared" si="7"/>
         <v>18,1701</v>
       </c>
@@ -16621,7 +16629,7 @@
       <c r="H258" s="48">
         <v>1702</v>
       </c>
-      <c r="I258" t="str">
+      <c r="I258" s="88" t="str">
         <f t="shared" si="7"/>
         <v>18,1702</v>
       </c>
@@ -16643,7 +16651,7 @@
       <c r="H259" s="48">
         <v>1704</v>
       </c>
-      <c r="I259" t="str">
+      <c r="I259" s="88" t="str">
         <f t="shared" ref="I259:I322" si="9">G259&amp;","&amp;H259</f>
         <v>18,1704</v>
       </c>
@@ -16665,7 +16673,7 @@
       <c r="H260" s="48">
         <v>4931</v>
       </c>
-      <c r="I260" t="str">
+      <c r="I260" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,4931</v>
       </c>
@@ -16687,7 +16695,7 @@
       <c r="H261" s="48">
         <v>1751</v>
       </c>
-      <c r="I261" t="str">
+      <c r="I261" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,1751</v>
       </c>
@@ -16709,7 +16717,7 @@
       <c r="H262" s="48">
         <v>1753</v>
       </c>
-      <c r="I262" t="str">
+      <c r="I262" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,1753</v>
       </c>
@@ -16731,7 +16739,7 @@
       <c r="H263" s="48">
         <v>1754</v>
       </c>
-      <c r="I263" t="str">
+      <c r="I263" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,1754</v>
       </c>
@@ -16753,7 +16761,7 @@
       <c r="H264" s="48">
         <v>1755</v>
       </c>
-      <c r="I264" t="str">
+      <c r="I264" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,1755</v>
       </c>
@@ -16775,7 +16783,7 @@
       <c r="H265" s="48">
         <v>1756</v>
       </c>
-      <c r="I265" t="str">
+      <c r="I265" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,1756</v>
       </c>
@@ -16797,7 +16805,7 @@
       <c r="H266" s="48">
         <v>1757</v>
       </c>
-      <c r="I266" t="str">
+      <c r="I266" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,1757</v>
       </c>
@@ -16819,7 +16827,7 @@
       <c r="H267" s="48">
         <v>1758</v>
       </c>
-      <c r="I267" t="str">
+      <c r="I267" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,1758</v>
       </c>
@@ -16841,7 +16849,7 @@
       <c r="H268" s="48">
         <v>1762</v>
       </c>
-      <c r="I268" t="str">
+      <c r="I268" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,1762</v>
       </c>
@@ -16863,7 +16871,7 @@
       <c r="H269" s="48">
         <v>1763</v>
       </c>
-      <c r="I269" t="str">
+      <c r="I269" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,1763</v>
       </c>
@@ -16885,7 +16893,7 @@
       <c r="H270" s="48">
         <v>1764</v>
       </c>
-      <c r="I270" t="str">
+      <c r="I270" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,1764</v>
       </c>
@@ -16907,7 +16915,7 @@
       <c r="H271" s="48">
         <v>1765</v>
       </c>
-      <c r="I271" t="str">
+      <c r="I271" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,1765</v>
       </c>
@@ -16929,7 +16937,7 @@
       <c r="H272" s="48">
         <v>1766</v>
       </c>
-      <c r="I272" t="str">
+      <c r="I272" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,1766</v>
       </c>
@@ -16951,7 +16959,7 @@
       <c r="H273" s="48">
         <v>4934</v>
       </c>
-      <c r="I273" t="str">
+      <c r="I273" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,4934</v>
       </c>
@@ -16973,7 +16981,7 @@
       <c r="H274" s="48">
         <v>1052</v>
       </c>
-      <c r="I274" t="str">
+      <c r="I274" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,1052</v>
       </c>
@@ -16995,7 +17003,7 @@
       <c r="H275" s="48">
         <v>1053</v>
       </c>
-      <c r="I275" t="str">
+      <c r="I275" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,1053</v>
       </c>
@@ -17017,7 +17025,7 @@
       <c r="H276" s="48">
         <v>1055</v>
       </c>
-      <c r="I276" t="str">
+      <c r="I276" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,1055</v>
       </c>
@@ -17039,7 +17047,7 @@
       <c r="H277" s="48">
         <v>1056</v>
       </c>
-      <c r="I277" t="str">
+      <c r="I277" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,1056</v>
       </c>
@@ -17061,7 +17069,7 @@
       <c r="H278" s="48">
         <v>1099</v>
       </c>
-      <c r="I278" t="str">
+      <c r="I278" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,1099</v>
       </c>
@@ -17083,7 +17091,7 @@
       <c r="H279" s="48">
         <v>4918</v>
       </c>
-      <c r="I279" t="str">
+      <c r="I279" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,4918</v>
       </c>
@@ -17105,7 +17113,7 @@
       <c r="H280" s="48">
         <v>1551</v>
       </c>
-      <c r="I280" t="str">
+      <c r="I280" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,1551</v>
       </c>
@@ -17127,7 +17135,7 @@
       <c r="H281" s="48">
         <v>1552</v>
       </c>
-      <c r="I281" t="str">
+      <c r="I281" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,1552</v>
       </c>
@@ -17149,7 +17157,7 @@
       <c r="H282" s="48">
         <v>1553</v>
       </c>
-      <c r="I282" t="str">
+      <c r="I282" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,1553</v>
       </c>
@@ -17171,7 +17179,7 @@
       <c r="H283" s="48">
         <v>1555</v>
       </c>
-      <c r="I283" t="str">
+      <c r="I283" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,1555</v>
       </c>
@@ -17193,7 +17201,7 @@
       <c r="H284" s="48">
         <v>1556</v>
       </c>
-      <c r="I284" t="str">
+      <c r="I284" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,1556</v>
       </c>
@@ -17215,7 +17223,7 @@
       <c r="H285" s="48">
         <v>1557</v>
       </c>
-      <c r="I285" t="str">
+      <c r="I285" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,1557</v>
       </c>
@@ -17237,7 +17245,7 @@
       <c r="H286" s="48">
         <v>1558</v>
       </c>
-      <c r="I286" t="str">
+      <c r="I286" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,1558</v>
       </c>
@@ -17259,7 +17267,7 @@
       <c r="H287" s="48">
         <v>1561</v>
       </c>
-      <c r="I287" t="str">
+      <c r="I287" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,1561</v>
       </c>
@@ -17281,7 +17289,7 @@
       <c r="H288" s="48">
         <v>1562</v>
       </c>
-      <c r="I288" t="str">
+      <c r="I288" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,1562</v>
       </c>
@@ -17303,7 +17311,7 @@
       <c r="H289" s="48">
         <v>1563</v>
       </c>
-      <c r="I289" t="str">
+      <c r="I289" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,1563</v>
       </c>
@@ -17325,7 +17333,7 @@
       <c r="H290" s="48">
         <v>1599</v>
       </c>
-      <c r="I290" t="str">
+      <c r="I290" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,1599</v>
       </c>
@@ -17347,7 +17355,7 @@
       <c r="H291" s="48">
         <v>4927</v>
       </c>
-      <c r="I291" t="str">
+      <c r="I291" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,4927</v>
       </c>
@@ -17369,7 +17377,7 @@
       <c r="H292" s="48">
         <v>3801</v>
       </c>
-      <c r="I292" t="str">
+      <c r="I292" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,3801</v>
       </c>
@@ -17391,7 +17399,7 @@
       <c r="H293" s="48">
         <v>3802</v>
       </c>
-      <c r="I293" t="str">
+      <c r="I293" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,3802</v>
       </c>
@@ -17413,7 +17421,7 @@
       <c r="H294" s="48">
         <v>3803</v>
       </c>
-      <c r="I294" t="str">
+      <c r="I294" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,3803</v>
       </c>
@@ -17435,7 +17443,7 @@
       <c r="H295" s="48">
         <v>3804</v>
       </c>
-      <c r="I295" t="str">
+      <c r="I295" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,3804</v>
       </c>
@@ -17457,7 +17465,7 @@
       <c r="H296" s="48">
         <v>3805</v>
       </c>
-      <c r="I296" t="str">
+      <c r="I296" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,3805</v>
       </c>
@@ -17479,7 +17487,7 @@
       <c r="H297" s="48">
         <v>3806</v>
       </c>
-      <c r="I297" t="str">
+      <c r="I297" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,3806</v>
       </c>
@@ -17501,7 +17509,7 @@
       <c r="H298" s="48">
         <v>3807</v>
       </c>
-      <c r="I298" t="str">
+      <c r="I298" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,3807</v>
       </c>
@@ -17523,7 +17531,7 @@
       <c r="H299" s="48">
         <v>3849</v>
       </c>
-      <c r="I299" t="str">
+      <c r="I299" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,3849</v>
       </c>
@@ -17545,7 +17553,7 @@
       <c r="H300" s="48">
         <v>1603</v>
       </c>
-      <c r="I300" t="str">
+      <c r="I300" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,1603</v>
       </c>
@@ -17567,7 +17575,7 @@
       <c r="H301" s="48">
         <v>4254</v>
       </c>
-      <c r="I301" t="str">
+      <c r="I301" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,4254</v>
       </c>
@@ -17589,7 +17597,7 @@
       <c r="H302" s="48">
         <v>4268</v>
       </c>
-      <c r="I302" t="str">
+      <c r="I302" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,4268</v>
       </c>
@@ -17611,7 +17619,7 @@
       <c r="H303" s="48">
         <v>4272</v>
       </c>
-      <c r="I303" t="str">
+      <c r="I303" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,4272</v>
       </c>
@@ -17633,7 +17641,7 @@
       <c r="H304" s="48">
         <v>4944</v>
       </c>
-      <c r="I304" t="str">
+      <c r="I304" s="88" t="str">
         <f t="shared" si="9"/>
         <v>18,4944</v>
       </c>
@@ -17655,7 +17663,7 @@
       <c r="H305" s="48" t="s">
         <v>1426</v>
       </c>
-      <c r="I305" t="str">
+      <c r="I305" s="88" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">19,2001 </v>
       </c>
@@ -17677,7 +17685,7 @@
       <c r="H306" s="48">
         <v>2002</v>
       </c>
-      <c r="I306" t="str">
+      <c r="I306" s="88" t="str">
         <f t="shared" si="9"/>
         <v>19,2002</v>
       </c>
@@ -17699,7 +17707,7 @@
       <c r="H307" s="48">
         <v>2003</v>
       </c>
-      <c r="I307" t="str">
+      <c r="I307" s="88" t="str">
         <f t="shared" si="9"/>
         <v>19,2003</v>
       </c>
@@ -17721,7 +17729,7 @@
       <c r="H308" s="48">
         <v>2004</v>
       </c>
-      <c r="I308" t="str">
+      <c r="I308" s="88" t="str">
         <f t="shared" si="9"/>
         <v>19,2004</v>
       </c>
@@ -17743,7 +17751,7 @@
       <c r="H309" s="48">
         <v>2005</v>
       </c>
-      <c r="I309" t="str">
+      <c r="I309" s="88" t="str">
         <f t="shared" si="9"/>
         <v>19,2005</v>
       </c>
@@ -17765,7 +17773,7 @@
       <c r="H310" s="48">
         <v>2006</v>
       </c>
-      <c r="I310" t="str">
+      <c r="I310" s="88" t="str">
         <f t="shared" si="9"/>
         <v>19,2006</v>
       </c>
@@ -17787,7 +17795,7 @@
       <c r="H311" s="48">
         <v>2007</v>
       </c>
-      <c r="I311" t="str">
+      <c r="I311" s="88" t="str">
         <f t="shared" si="9"/>
         <v>19,2007</v>
       </c>
@@ -17809,7 +17817,7 @@
       <c r="H312" s="48">
         <v>2008</v>
       </c>
-      <c r="I312" t="str">
+      <c r="I312" s="88" t="str">
         <f t="shared" si="9"/>
         <v>19,2008</v>
       </c>
@@ -17831,7 +17839,7 @@
       <c r="H313" s="48">
         <v>2009</v>
       </c>
-      <c r="I313" t="str">
+      <c r="I313" s="88" t="str">
         <f t="shared" si="9"/>
         <v>19,2009</v>
       </c>
@@ -17853,7 +17861,7 @@
       <c r="H314" s="48">
         <v>2011</v>
       </c>
-      <c r="I314" t="str">
+      <c r="I314" s="88" t="str">
         <f t="shared" si="9"/>
         <v>19,2011</v>
       </c>
@@ -17875,7 +17883,7 @@
       <c r="H315" s="48">
         <v>2012</v>
       </c>
-      <c r="I315" t="str">
+      <c r="I315" s="88" t="str">
         <f t="shared" si="9"/>
         <v>19,2012</v>
       </c>
@@ -17897,7 +17905,7 @@
       <c r="H316" s="48">
         <v>2013</v>
       </c>
-      <c r="I316" t="str">
+      <c r="I316" s="88" t="str">
         <f t="shared" si="9"/>
         <v>19,2013</v>
       </c>
@@ -17919,7 +17927,7 @@
       <c r="H317" s="48">
         <v>2019</v>
       </c>
-      <c r="I317" t="str">
+      <c r="I317" s="88" t="str">
         <f t="shared" si="9"/>
         <v>19,2019</v>
       </c>
@@ -17941,7 +17949,7 @@
       <c r="H318" s="48">
         <v>2021</v>
       </c>
-      <c r="I318" t="str">
+      <c r="I318" s="88" t="str">
         <f t="shared" si="9"/>
         <v>19,2021</v>
       </c>
@@ -17963,7 +17971,7 @@
       <c r="H319" s="48">
         <v>2041</v>
       </c>
-      <c r="I319" t="str">
+      <c r="I319" s="88" t="str">
         <f t="shared" si="9"/>
         <v>19,2041</v>
       </c>
@@ -17985,7 +17993,7 @@
       <c r="H320" s="48">
         <v>2042</v>
       </c>
-      <c r="I320" t="str">
+      <c r="I320" s="88" t="str">
         <f t="shared" si="9"/>
         <v>19,2042</v>
       </c>
@@ -18007,7 +18015,7 @@
       <c r="H321" s="48">
         <v>2043</v>
       </c>
-      <c r="I321" t="str">
+      <c r="I321" s="88" t="str">
         <f t="shared" si="9"/>
         <v>19,2043</v>
       </c>
@@ -18029,7 +18037,7 @@
       <c r="H322" s="48">
         <v>2044</v>
       </c>
-      <c r="I322" t="str">
+      <c r="I322" s="88" t="str">
         <f t="shared" si="9"/>
         <v>19,2044</v>
       </c>
@@ -18051,7 +18059,7 @@
       <c r="H323" s="48">
         <v>2045</v>
       </c>
-      <c r="I323" t="str">
+      <c r="I323" s="88" t="str">
         <f t="shared" ref="I323:I327" si="11">G323&amp;","&amp;H323</f>
         <v>19,2045</v>
       </c>
@@ -18073,7 +18081,7 @@
       <c r="H324" s="48">
         <v>2046</v>
       </c>
-      <c r="I324" t="str">
+      <c r="I324" s="88" t="str">
         <f t="shared" si="11"/>
         <v>19,2046</v>
       </c>
@@ -18095,7 +18103,7 @@
       <c r="H325" s="48">
         <v>2047</v>
       </c>
-      <c r="I325" t="str">
+      <c r="I325" s="88" t="str">
         <f t="shared" si="11"/>
         <v>19,2047</v>
       </c>
@@ -18117,7 +18125,7 @@
       <c r="H326" s="48">
         <v>2048</v>
       </c>
-      <c r="I326" t="str">
+      <c r="I326" s="88" t="str">
         <f t="shared" si="11"/>
         <v>19,2048</v>
       </c>
@@ -18139,7 +18147,7 @@
       <c r="H327" s="48">
         <v>2049</v>
       </c>
-      <c r="I327" t="str">
+      <c r="I327" s="88" t="str">
         <f t="shared" si="11"/>
         <v>19,2049</v>
       </c>
@@ -38934,8 +38942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G270"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F273" sqref="F273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38978,7 +38986,7 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2" s="87" t="str">
         <f>E2&amp;","&amp;C2</f>
         <v>1,402</v>
       </c>
@@ -39000,7 +39008,7 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3" s="87" t="str">
         <f t="shared" ref="F3:F66" si="1">E3&amp;","&amp;C3</f>
         <v>1,405</v>
       </c>
@@ -39019,7 +39027,7 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,411</v>
       </c>
@@ -39038,7 +39046,7 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F5" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,412</v>
       </c>
@@ -39057,7 +39065,7 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" t="str">
+      <c r="F6" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,413</v>
       </c>
@@ -39076,7 +39084,7 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F7" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,414</v>
       </c>
@@ -39095,7 +39103,7 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F8" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,416</v>
       </c>
@@ -39114,7 +39122,7 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F9" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,417</v>
       </c>
@@ -39133,7 +39141,7 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F10" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,418</v>
       </c>
@@ -39152,7 +39160,7 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F11" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,419</v>
       </c>
@@ -39171,7 +39179,7 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F12" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,421</v>
       </c>
@@ -39190,7 +39198,7 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" t="str">
+      <c r="F13" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,422</v>
       </c>
@@ -39209,7 +39217,7 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" t="str">
+      <c r="F14" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,423</v>
       </c>
@@ -39228,7 +39236,7 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" t="str">
+      <c r="F15" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,424</v>
       </c>
@@ -39247,7 +39255,7 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" t="str">
+      <c r="F16" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,425</v>
       </c>
@@ -39266,7 +39274,7 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" t="str">
+      <c r="F17" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,426</v>
       </c>
@@ -39285,7 +39293,7 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" t="str">
+      <c r="F18" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,427</v>
       </c>
@@ -39304,7 +39312,7 @@
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" t="str">
+      <c r="F19" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,428</v>
       </c>
@@ -39323,7 +39331,7 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" t="str">
+      <c r="F20" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,429</v>
       </c>
@@ -39342,7 +39350,7 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" t="str">
+      <c r="F21" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,435</v>
       </c>
@@ -39361,7 +39369,7 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" t="str">
+      <c r="F22" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,437</v>
       </c>
@@ -39380,7 +39388,7 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" t="str">
+      <c r="F23" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,439</v>
       </c>
@@ -39399,7 +39407,7 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" t="str">
+      <c r="F24" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,440</v>
       </c>
@@ -39418,7 +39426,7 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" t="str">
+      <c r="F25" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,441</v>
       </c>
@@ -39437,7 +39445,7 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" t="str">
+      <c r="F26" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,442</v>
       </c>
@@ -39456,7 +39464,7 @@
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" t="str">
+      <c r="F27" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,448</v>
       </c>
@@ -39475,7 +39483,7 @@
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" t="str">
+      <c r="F28" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,483</v>
       </c>
@@ -39494,7 +39502,7 @@
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" t="str">
+      <c r="F29" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,505</v>
       </c>
@@ -39513,7 +39521,7 @@
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30" t="str">
+      <c r="F30" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,509</v>
       </c>
@@ -39532,7 +39540,7 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" t="str">
+      <c r="F31" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,510</v>
       </c>
@@ -39551,7 +39559,7 @@
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32" t="str">
+      <c r="F32" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,511</v>
       </c>
@@ -39570,7 +39578,7 @@
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="F33" t="str">
+      <c r="F33" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,512</v>
       </c>
@@ -39589,7 +39597,7 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="F34" t="str">
+      <c r="F34" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,513</v>
       </c>
@@ -39608,7 +39616,7 @@
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="F35" t="str">
+      <c r="F35" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,514</v>
       </c>
@@ -39627,7 +39635,7 @@
       <c r="E36">
         <v>1</v>
       </c>
-      <c r="F36" t="str">
+      <c r="F36" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,515</v>
       </c>
@@ -39646,7 +39654,7 @@
       <c r="E37">
         <v>1</v>
       </c>
-      <c r="F37" t="str">
+      <c r="F37" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,558</v>
       </c>
@@ -39665,7 +39673,7 @@
       <c r="E38">
         <v>1</v>
       </c>
-      <c r="F38" t="str">
+      <c r="F38" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,560</v>
       </c>
@@ -39684,7 +39692,7 @@
       <c r="E39">
         <v>1</v>
       </c>
-      <c r="F39" t="str">
+      <c r="F39" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,563</v>
       </c>
@@ -39703,7 +39711,7 @@
       <c r="E40">
         <v>1</v>
       </c>
-      <c r="F40" t="str">
+      <c r="F40" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,564</v>
       </c>
@@ -39722,7 +39730,7 @@
       <c r="E41">
         <v>1</v>
       </c>
-      <c r="F41" t="str">
+      <c r="F41" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,599</v>
       </c>
@@ -39741,7 +39749,7 @@
       <c r="E42">
         <v>1</v>
       </c>
-      <c r="F42" t="str">
+      <c r="F42" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,605</v>
       </c>
@@ -39760,7 +39768,7 @@
       <c r="E43">
         <v>1</v>
       </c>
-      <c r="F43" t="str">
+      <c r="F43" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,612</v>
       </c>
@@ -39779,7 +39787,7 @@
       <c r="E44">
         <v>1</v>
       </c>
-      <c r="F44" t="str">
+      <c r="F44" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,614</v>
       </c>
@@ -39798,7 +39806,7 @@
       <c r="E45">
         <v>1</v>
       </c>
-      <c r="F45" t="str">
+      <c r="F45" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,618</v>
       </c>
@@ -39817,7 +39825,7 @@
       <c r="E46">
         <v>1</v>
       </c>
-      <c r="F46" t="str">
+      <c r="F46" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,619</v>
       </c>
@@ -39836,7 +39844,7 @@
       <c r="E47">
         <v>1</v>
       </c>
-      <c r="F47" t="str">
+      <c r="F47" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,620</v>
       </c>
@@ -39855,7 +39863,7 @@
       <c r="E48">
         <v>1</v>
       </c>
-      <c r="F48" t="str">
+      <c r="F48" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,622</v>
       </c>
@@ -39874,7 +39882,7 @@
       <c r="E49">
         <v>1</v>
       </c>
-      <c r="F49" t="str">
+      <c r="F49" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,623</v>
       </c>
@@ -39893,7 +39901,7 @@
       <c r="E50">
         <v>1</v>
       </c>
-      <c r="F50" t="str">
+      <c r="F50" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,624</v>
       </c>
@@ -39912,7 +39920,7 @@
       <c r="E51">
         <v>1</v>
       </c>
-      <c r="F51" t="str">
+      <c r="F51" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,625</v>
       </c>
@@ -39931,7 +39939,7 @@
       <c r="E52">
         <v>1</v>
       </c>
-      <c r="F52" t="str">
+      <c r="F52" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,626</v>
       </c>
@@ -39950,7 +39958,7 @@
       <c r="E53">
         <v>1</v>
       </c>
-      <c r="F53" t="str">
+      <c r="F53" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,635</v>
       </c>
@@ -39969,7 +39977,7 @@
       <c r="E54">
         <v>1</v>
       </c>
-      <c r="F54" t="str">
+      <c r="F54" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,637</v>
       </c>
@@ -39988,7 +39996,7 @@
       <c r="E55">
         <v>1</v>
       </c>
-      <c r="F55" t="str">
+      <c r="F55" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,640</v>
       </c>
@@ -40007,7 +40015,7 @@
       <c r="E56">
         <v>1</v>
       </c>
-      <c r="F56" t="str">
+      <c r="F56" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,683</v>
       </c>
@@ -40026,7 +40034,7 @@
       <c r="E57">
         <v>1</v>
       </c>
-      <c r="F57" t="str">
+      <c r="F57" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,709</v>
       </c>
@@ -40045,7 +40053,7 @@
       <c r="E58">
         <v>1</v>
       </c>
-      <c r="F58" t="str">
+      <c r="F58" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,710</v>
       </c>
@@ -40064,7 +40072,7 @@
       <c r="E59">
         <v>1</v>
       </c>
-      <c r="F59" t="str">
+      <c r="F59" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,711</v>
       </c>
@@ -40083,7 +40091,7 @@
       <c r="E60">
         <v>1</v>
       </c>
-      <c r="F60" t="str">
+      <c r="F60" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,712</v>
       </c>
@@ -40102,7 +40110,7 @@
       <c r="E61">
         <v>1</v>
       </c>
-      <c r="F61" t="str">
+      <c r="F61" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,713</v>
       </c>
@@ -40121,7 +40129,7 @@
       <c r="E62">
         <v>1</v>
       </c>
-      <c r="F62" t="str">
+      <c r="F62" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,714</v>
       </c>
@@ -40140,7 +40148,7 @@
       <c r="E63">
         <v>1</v>
       </c>
-      <c r="F63" t="str">
+      <c r="F63" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,715</v>
       </c>
@@ -40159,7 +40167,7 @@
       <c r="E64">
         <v>1</v>
       </c>
-      <c r="F64" t="str">
+      <c r="F64" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,758</v>
       </c>
@@ -40178,7 +40186,7 @@
       <c r="E65">
         <v>1</v>
       </c>
-      <c r="F65" t="str">
+      <c r="F65" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,760</v>
       </c>
@@ -40197,7 +40205,7 @@
       <c r="E66">
         <v>1</v>
       </c>
-      <c r="F66" t="str">
+      <c r="F66" s="87" t="str">
         <f t="shared" si="1"/>
         <v>1,799</v>
       </c>
@@ -40216,7 +40224,7 @@
       <c r="E67">
         <v>1</v>
       </c>
-      <c r="F67" t="str">
+      <c r="F67" s="87" t="str">
         <f t="shared" ref="F67:F130" si="3">E67&amp;","&amp;C67</f>
         <v>1,800</v>
       </c>
@@ -40235,7 +40243,7 @@
       <c r="E68">
         <v>1</v>
       </c>
-      <c r="F68" t="str">
+      <c r="F68" s="87" t="str">
         <f t="shared" si="3"/>
         <v>1,802</v>
       </c>
@@ -40254,7 +40262,7 @@
       <c r="E69">
         <v>1</v>
       </c>
-      <c r="F69" t="str">
+      <c r="F69" s="87" t="str">
         <f t="shared" si="3"/>
         <v>1,805</v>
       </c>
@@ -40273,7 +40281,7 @@
       <c r="E70">
         <v>1</v>
       </c>
-      <c r="F70" t="str">
+      <c r="F70" s="87" t="str">
         <f t="shared" si="3"/>
         <v>1,809</v>
       </c>
@@ -40292,7 +40300,7 @@
       <c r="E71">
         <v>1</v>
       </c>
-      <c r="F71" t="str">
+      <c r="F71" s="87" t="str">
         <f t="shared" si="3"/>
         <v>1,810</v>
       </c>
@@ -40311,7 +40319,7 @@
       <c r="E72">
         <v>1</v>
       </c>
-      <c r="F72" t="str">
+      <c r="F72" s="87" t="str">
         <f t="shared" si="3"/>
         <v>1,811</v>
       </c>
@@ -40330,7 +40338,7 @@
       <c r="E73">
         <v>1</v>
       </c>
-      <c r="F73" t="str">
+      <c r="F73" s="87" t="str">
         <f t="shared" si="3"/>
         <v>1,812</v>
       </c>
@@ -40349,7 +40357,7 @@
       <c r="E74">
         <v>1</v>
       </c>
-      <c r="F74" t="str">
+      <c r="F74" s="87" t="str">
         <f t="shared" si="3"/>
         <v>1,813</v>
       </c>
@@ -40368,7 +40376,7 @@
       <c r="E75">
         <v>1</v>
       </c>
-      <c r="F75" t="str">
+      <c r="F75" s="87" t="str">
         <f t="shared" si="3"/>
         <v>1,814</v>
       </c>
@@ -40387,7 +40395,7 @@
       <c r="E76">
         <v>1</v>
       </c>
-      <c r="F76" t="str">
+      <c r="F76" s="87" t="str">
         <f t="shared" si="3"/>
         <v>1,819</v>
       </c>
@@ -40406,7 +40414,7 @@
       <c r="E77">
         <v>1</v>
       </c>
-      <c r="F77" t="str">
+      <c r="F77" s="87" t="str">
         <f t="shared" si="3"/>
         <v>1,820</v>
       </c>
@@ -40425,7 +40433,7 @@
       <c r="E78">
         <v>1</v>
       </c>
-      <c r="F78" t="str">
+      <c r="F78" s="87" t="str">
         <f t="shared" si="3"/>
         <v>1,822</v>
       </c>
@@ -40444,7 +40452,7 @@
       <c r="E79">
         <v>1</v>
       </c>
-      <c r="F79" t="str">
+      <c r="F79" s="87" t="str">
         <f t="shared" si="3"/>
         <v>1,823</v>
       </c>
@@ -40463,7 +40471,7 @@
       <c r="E80">
         <v>1</v>
       </c>
-      <c r="F80" t="str">
+      <c r="F80" s="87" t="str">
         <f t="shared" si="3"/>
         <v>1,860</v>
       </c>
@@ -40482,7 +40490,7 @@
       <c r="E81">
         <v>1</v>
       </c>
-      <c r="F81" t="str">
+      <c r="F81" s="87" t="str">
         <f t="shared" si="3"/>
         <v>1,989</v>
       </c>
@@ -40501,7 +40509,7 @@
       <c r="E82">
         <v>2</v>
       </c>
-      <c r="F82" t="str">
+      <c r="F82" s="87" t="str">
         <f t="shared" si="3"/>
         <v>2,001</v>
       </c>
@@ -40520,7 +40528,7 @@
       <c r="E83">
         <v>2</v>
       </c>
-      <c r="F83" t="str">
+      <c r="F83" s="87" t="str">
         <f t="shared" ref="F83:F87" si="4">E83&amp;",00"&amp;C83</f>
         <v>2,002</v>
       </c>
@@ -40539,7 +40547,7 @@
       <c r="E84">
         <v>2</v>
       </c>
-      <c r="F84" t="str">
+      <c r="F84" s="87" t="str">
         <f t="shared" si="4"/>
         <v>2,003</v>
       </c>
@@ -40558,7 +40566,7 @@
       <c r="E85">
         <v>2</v>
       </c>
-      <c r="F85" t="str">
+      <c r="F85" s="87" t="str">
         <f t="shared" si="4"/>
         <v>2,004</v>
       </c>
@@ -40577,7 +40585,7 @@
       <c r="E86">
         <v>2</v>
       </c>
-      <c r="F86" t="str">
+      <c r="F86" s="87" t="str">
         <f t="shared" si="4"/>
         <v>2,005</v>
       </c>
@@ -40596,7 +40604,7 @@
       <c r="E87">
         <v>2</v>
       </c>
-      <c r="F87" t="str">
+      <c r="F87" s="87" t="str">
         <f t="shared" si="4"/>
         <v>2,009</v>
       </c>
@@ -40615,7 +40623,7 @@
       <c r="E88">
         <v>2</v>
       </c>
-      <c r="F88" t="str">
+      <c r="F88" s="87" t="str">
         <f>E88&amp;",0"&amp;C88</f>
         <v>2,010</v>
       </c>
@@ -40634,7 +40642,7 @@
       <c r="E89">
         <v>2</v>
       </c>
-      <c r="F89" t="str">
+      <c r="F89" s="87" t="str">
         <f t="shared" ref="F89:F119" si="5">E89&amp;",0"&amp;C89</f>
         <v>2,011</v>
       </c>
@@ -40653,7 +40661,7 @@
       <c r="E90">
         <v>2</v>
       </c>
-      <c r="F90" t="str">
+      <c r="F90" s="87" t="str">
         <f t="shared" si="5"/>
         <v>2,012</v>
       </c>
@@ -40672,7 +40680,7 @@
       <c r="E91">
         <v>2</v>
       </c>
-      <c r="F91" t="str">
+      <c r="F91" s="87" t="str">
         <f t="shared" si="5"/>
         <v>2,013</v>
       </c>
@@ -40691,7 +40699,7 @@
       <c r="E92">
         <v>2</v>
       </c>
-      <c r="F92" t="str">
+      <c r="F92" s="87" t="str">
         <f t="shared" si="5"/>
         <v>2,014</v>
       </c>
@@ -40710,7 +40718,7 @@
       <c r="E93">
         <v>2</v>
       </c>
-      <c r="F93" t="str">
+      <c r="F93" s="87" t="str">
         <f t="shared" si="5"/>
         <v>2,016</v>
       </c>
@@ -40729,7 +40737,7 @@
       <c r="E94">
         <v>2</v>
       </c>
-      <c r="F94" t="str">
+      <c r="F94" s="87" t="str">
         <f t="shared" si="5"/>
         <v>2,017</v>
       </c>
@@ -40748,7 +40756,7 @@
       <c r="E95">
         <v>2</v>
       </c>
-      <c r="F95" t="str">
+      <c r="F95" s="87" t="str">
         <f t="shared" si="5"/>
         <v>2,018</v>
       </c>
@@ -40767,7 +40775,7 @@
       <c r="E96">
         <v>2</v>
       </c>
-      <c r="F96" t="str">
+      <c r="F96" s="87" t="str">
         <f t="shared" si="5"/>
         <v>2,019</v>
       </c>
@@ -40786,7 +40794,7 @@
       <c r="E97">
         <v>2</v>
       </c>
-      <c r="F97" t="str">
+      <c r="F97" s="87" t="str">
         <f t="shared" si="5"/>
         <v>2,021</v>
       </c>
@@ -40805,7 +40813,7 @@
       <c r="E98">
         <v>2</v>
       </c>
-      <c r="F98" t="str">
+      <c r="F98" s="87" t="str">
         <f t="shared" si="5"/>
         <v>2,022</v>
       </c>
@@ -40824,7 +40832,7 @@
       <c r="E99">
         <v>2</v>
       </c>
-      <c r="F99" t="str">
+      <c r="F99" s="87" t="str">
         <f t="shared" si="5"/>
         <v>2,023</v>
       </c>
@@ -40843,7 +40851,7 @@
       <c r="E100">
         <v>2</v>
       </c>
-      <c r="F100" t="str">
+      <c r="F100" s="87" t="str">
         <f t="shared" si="5"/>
         <v>2,024</v>
       </c>
@@ -40862,7 +40870,7 @@
       <c r="E101">
         <v>2</v>
       </c>
-      <c r="F101" t="str">
+      <c r="F101" s="87" t="str">
         <f t="shared" si="5"/>
         <v>2,025</v>
       </c>
@@ -40881,7 +40889,7 @@
       <c r="E102">
         <v>2</v>
       </c>
-      <c r="F102" t="str">
+      <c r="F102" s="87" t="str">
         <f t="shared" si="5"/>
         <v>2,026</v>
       </c>
@@ -40900,7 +40908,7 @@
       <c r="E103">
         <v>2</v>
       </c>
-      <c r="F103" t="str">
+      <c r="F103" s="87" t="str">
         <f t="shared" si="5"/>
         <v>2,027</v>
       </c>
@@ -40919,7 +40927,7 @@
       <c r="E104">
         <v>2</v>
       </c>
-      <c r="F104" t="str">
+      <c r="F104" s="87" t="str">
         <f t="shared" si="5"/>
         <v>2,035</v>
       </c>
@@ -40938,7 +40946,7 @@
       <c r="E105">
         <v>2</v>
       </c>
-      <c r="F105" t="str">
+      <c r="F105" s="87" t="str">
         <f t="shared" si="5"/>
         <v>2,036</v>
       </c>
@@ -40957,7 +40965,7 @@
       <c r="E106">
         <v>2</v>
       </c>
-      <c r="F106" t="str">
+      <c r="F106" s="87" t="str">
         <f t="shared" si="5"/>
         <v>2,037</v>
       </c>
@@ -40976,7 +40984,7 @@
       <c r="E107">
         <v>2</v>
       </c>
-      <c r="F107" t="str">
+      <c r="F107" s="87" t="str">
         <f t="shared" si="5"/>
         <v>2,038</v>
       </c>
@@ -40995,7 +41003,7 @@
       <c r="E108">
         <v>2</v>
       </c>
-      <c r="F108" t="str">
+      <c r="F108" s="87" t="str">
         <f t="shared" si="5"/>
         <v>2,039</v>
       </c>
@@ -41014,7 +41022,7 @@
       <c r="E109">
         <v>2</v>
       </c>
-      <c r="F109" t="str">
+      <c r="F109" s="87" t="str">
         <f t="shared" si="5"/>
         <v>2,040</v>
       </c>
@@ -41033,7 +41041,7 @@
       <c r="E110">
         <v>2</v>
       </c>
-      <c r="F110" t="str">
+      <c r="F110" s="87" t="str">
         <f t="shared" si="5"/>
         <v>2,041</v>
       </c>
@@ -41052,7 +41060,7 @@
       <c r="E111">
         <v>2</v>
       </c>
-      <c r="F111" t="str">
+      <c r="F111" s="87" t="str">
         <f>E111&amp;",0"&amp;C111</f>
         <v>2,042</v>
       </c>
@@ -41071,7 +41079,7 @@
       <c r="E112">
         <v>2</v>
       </c>
-      <c r="F112" t="str">
+      <c r="F112" s="87" t="str">
         <f t="shared" si="5"/>
         <v>2,044</v>
       </c>
@@ -41090,7 +41098,7 @@
       <c r="E113">
         <v>2</v>
       </c>
-      <c r="F113" t="str">
+      <c r="F113" s="87" t="str">
         <f t="shared" si="5"/>
         <v>2,045</v>
       </c>
@@ -41109,7 +41117,7 @@
       <c r="E114">
         <v>2</v>
       </c>
-      <c r="F114" t="str">
+      <c r="F114" s="87" t="str">
         <f t="shared" si="5"/>
         <v>2,046</v>
       </c>
@@ -41128,7 +41136,7 @@
       <c r="E115">
         <v>2</v>
       </c>
-      <c r="F115" t="str">
+      <c r="F115" s="87" t="str">
         <f t="shared" si="5"/>
         <v>2,048</v>
       </c>
@@ -41147,7 +41155,7 @@
       <c r="E116">
         <v>2</v>
       </c>
-      <c r="F116" t="str">
+      <c r="F116" s="87" t="str">
         <f t="shared" si="5"/>
         <v>2,049</v>
       </c>
@@ -41166,7 +41174,7 @@
       <c r="E117">
         <v>2</v>
       </c>
-      <c r="F117" t="str">
+      <c r="F117" s="87" t="str">
         <f t="shared" si="5"/>
         <v>2,050</v>
       </c>
@@ -41185,7 +41193,7 @@
       <c r="E118">
         <v>2</v>
       </c>
-      <c r="F118" t="str">
+      <c r="F118" s="87" t="str">
         <f t="shared" si="5"/>
         <v>2,083</v>
       </c>
@@ -41204,7 +41212,7 @@
       <c r="E119">
         <v>2</v>
       </c>
-      <c r="F119" t="str">
+      <c r="F119" s="87" t="str">
         <f t="shared" si="5"/>
         <v>2,088</v>
       </c>
@@ -41223,7 +41231,7 @@
       <c r="E120">
         <v>2</v>
       </c>
-      <c r="F120" t="str">
+      <c r="F120" s="87" t="str">
         <f t="shared" si="3"/>
         <v>2,100</v>
       </c>
@@ -41242,7 +41250,7 @@
       <c r="E121">
         <v>2</v>
       </c>
-      <c r="F121" t="str">
+      <c r="F121" s="87" t="str">
         <f t="shared" si="3"/>
         <v>2,107</v>
       </c>
@@ -41261,7 +41269,7 @@
       <c r="E122">
         <v>2</v>
       </c>
-      <c r="F122" t="str">
+      <c r="F122" s="87" t="str">
         <f t="shared" si="3"/>
         <v>2,109</v>
       </c>
@@ -41280,7 +41288,7 @@
       <c r="E123">
         <v>2</v>
       </c>
-      <c r="F123" t="str">
+      <c r="F123" s="87" t="str">
         <f t="shared" si="3"/>
         <v>2,110</v>
       </c>
@@ -41299,7 +41307,7 @@
       <c r="E124">
         <v>2</v>
       </c>
-      <c r="F124" t="str">
+      <c r="F124" s="87" t="str">
         <f t="shared" si="3"/>
         <v>2,111</v>
       </c>
@@ -41318,7 +41326,7 @@
       <c r="E125">
         <v>2</v>
       </c>
-      <c r="F125" t="str">
+      <c r="F125" s="87" t="str">
         <f t="shared" si="3"/>
         <v>2,112</v>
       </c>
@@ -41337,7 +41345,7 @@
       <c r="E126">
         <v>2</v>
       </c>
-      <c r="F126" t="str">
+      <c r="F126" s="87" t="str">
         <f t="shared" si="3"/>
         <v>2,113</v>
       </c>
@@ -41356,7 +41364,7 @@
       <c r="E127">
         <v>2</v>
       </c>
-      <c r="F127" t="str">
+      <c r="F127" s="87" t="str">
         <f t="shared" si="3"/>
         <v>2,114</v>
       </c>
@@ -41375,7 +41383,7 @@
       <c r="E128">
         <v>2</v>
       </c>
-      <c r="F128" t="str">
+      <c r="F128" s="87" t="str">
         <f t="shared" si="3"/>
         <v>2,115</v>
       </c>
@@ -41394,7 +41402,7 @@
       <c r="E129">
         <v>2</v>
       </c>
-      <c r="F129" t="str">
+      <c r="F129" s="87" t="str">
         <f t="shared" si="3"/>
         <v>2,116</v>
       </c>
@@ -41413,7 +41421,7 @@
       <c r="E130">
         <v>2</v>
       </c>
-      <c r="F130" t="str">
+      <c r="F130" s="87" t="str">
         <f t="shared" si="3"/>
         <v>2,117</v>
       </c>
@@ -41432,7 +41440,7 @@
       <c r="E131">
         <v>2</v>
       </c>
-      <c r="F131" t="str">
+      <c r="F131" s="87" t="str">
         <f t="shared" ref="F131:F194" si="7">E131&amp;","&amp;C131</f>
         <v>2,118</v>
       </c>
@@ -41451,7 +41459,7 @@
       <c r="E132">
         <v>2</v>
       </c>
-      <c r="F132" t="str">
+      <c r="F132" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,119</v>
       </c>
@@ -41470,7 +41478,7 @@
       <c r="E133">
         <v>2</v>
       </c>
-      <c r="F133" t="str">
+      <c r="F133" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,120</v>
       </c>
@@ -41489,7 +41497,7 @@
       <c r="E134">
         <v>2</v>
       </c>
-      <c r="F134" t="str">
+      <c r="F134" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,121</v>
       </c>
@@ -41508,7 +41516,7 @@
       <c r="E135">
         <v>2</v>
       </c>
-      <c r="F135" t="str">
+      <c r="F135" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,122</v>
       </c>
@@ -41527,7 +41535,7 @@
       <c r="E136">
         <v>2</v>
       </c>
-      <c r="F136" t="str">
+      <c r="F136" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,123</v>
       </c>
@@ -41546,7 +41554,7 @@
       <c r="E137">
         <v>2</v>
       </c>
-      <c r="F137" t="str">
+      <c r="F137" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,124</v>
       </c>
@@ -41565,7 +41573,7 @@
       <c r="E138">
         <v>2</v>
       </c>
-      <c r="F138" t="str">
+      <c r="F138" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,125</v>
       </c>
@@ -41584,7 +41592,7 @@
       <c r="E139">
         <v>2</v>
       </c>
-      <c r="F139" t="str">
+      <c r="F139" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,126</v>
       </c>
@@ -41603,7 +41611,7 @@
       <c r="E140">
         <v>2</v>
       </c>
-      <c r="F140" t="str">
+      <c r="F140" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,127</v>
       </c>
@@ -41622,7 +41630,7 @@
       <c r="E141">
         <v>2</v>
       </c>
-      <c r="F141" t="str">
+      <c r="F141" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,128</v>
       </c>
@@ -41641,7 +41649,7 @@
       <c r="E142">
         <v>2</v>
       </c>
-      <c r="F142" t="str">
+      <c r="F142" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,129</v>
       </c>
@@ -41660,7 +41668,7 @@
       <c r="E143">
         <v>2</v>
       </c>
-      <c r="F143" t="str">
+      <c r="F143" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,130</v>
       </c>
@@ -41679,7 +41687,7 @@
       <c r="E144">
         <v>2</v>
       </c>
-      <c r="F144" t="str">
+      <c r="F144" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,131</v>
       </c>
@@ -41698,7 +41706,7 @@
       <c r="E145">
         <v>2</v>
       </c>
-      <c r="F145" t="str">
+      <c r="F145" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,132</v>
       </c>
@@ -41717,7 +41725,7 @@
       <c r="E146">
         <v>2</v>
       </c>
-      <c r="F146" t="str">
+      <c r="F146" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,133</v>
       </c>
@@ -41736,7 +41744,7 @@
       <c r="E147">
         <v>2</v>
       </c>
-      <c r="F147" t="str">
+      <c r="F147" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,134</v>
       </c>
@@ -41755,7 +41763,7 @@
       <c r="E148">
         <v>2</v>
       </c>
-      <c r="F148" t="str">
+      <c r="F148" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,135</v>
       </c>
@@ -41774,7 +41782,7 @@
       <c r="E149">
         <v>2</v>
       </c>
-      <c r="F149" t="str">
+      <c r="F149" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,136</v>
       </c>
@@ -41793,7 +41801,7 @@
       <c r="E150">
         <v>2</v>
       </c>
-      <c r="F150" t="str">
+      <c r="F150" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,137</v>
       </c>
@@ -41812,7 +41820,7 @@
       <c r="E151">
         <v>2</v>
       </c>
-      <c r="F151" t="str">
+      <c r="F151" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,138</v>
       </c>
@@ -41831,7 +41839,7 @@
       <c r="E152">
         <v>2</v>
       </c>
-      <c r="F152" t="str">
+      <c r="F152" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,139</v>
       </c>
@@ -41850,7 +41858,7 @@
       <c r="E153">
         <v>2</v>
       </c>
-      <c r="F153" t="str">
+      <c r="F153" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,140</v>
       </c>
@@ -41869,7 +41877,7 @@
       <c r="E154">
         <v>2</v>
       </c>
-      <c r="F154" t="str">
+      <c r="F154" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,141</v>
       </c>
@@ -41888,7 +41896,7 @@
       <c r="E155">
         <v>2</v>
       </c>
-      <c r="F155" t="str">
+      <c r="F155" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,142</v>
       </c>
@@ -41907,7 +41915,7 @@
       <c r="E156">
         <v>2</v>
       </c>
-      <c r="F156" t="str">
+      <c r="F156" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,143</v>
       </c>
@@ -41926,7 +41934,7 @@
       <c r="E157">
         <v>2</v>
       </c>
-      <c r="F157" t="str">
+      <c r="F157" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,145</v>
       </c>
@@ -41945,7 +41953,7 @@
       <c r="E158">
         <v>2</v>
       </c>
-      <c r="F158" t="str">
+      <c r="F158" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,146</v>
       </c>
@@ -41964,7 +41972,7 @@
       <c r="E159">
         <v>2</v>
       </c>
-      <c r="F159" t="str">
+      <c r="F159" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,147</v>
       </c>
@@ -41983,7 +41991,7 @@
       <c r="E160">
         <v>2</v>
       </c>
-      <c r="F160" t="str">
+      <c r="F160" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,148</v>
       </c>
@@ -42002,7 +42010,7 @@
       <c r="E161">
         <v>2</v>
       </c>
-      <c r="F161" t="str">
+      <c r="F161" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,149</v>
       </c>
@@ -42021,7 +42029,7 @@
       <c r="E162">
         <v>2</v>
       </c>
-      <c r="F162" t="str">
+      <c r="F162" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,150</v>
       </c>
@@ -42040,7 +42048,7 @@
       <c r="E163">
         <v>2</v>
       </c>
-      <c r="F163" t="str">
+      <c r="F163" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,158</v>
       </c>
@@ -42059,7 +42067,7 @@
       <c r="E164">
         <v>2</v>
       </c>
-      <c r="F164" t="str">
+      <c r="F164" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,160</v>
       </c>
@@ -42078,7 +42086,7 @@
       <c r="E165">
         <v>2</v>
       </c>
-      <c r="F165" t="str">
+      <c r="F165" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,163</v>
       </c>
@@ -42097,7 +42105,7 @@
       <c r="E166">
         <v>2</v>
       </c>
-      <c r="F166" t="str">
+      <c r="F166" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,164</v>
       </c>
@@ -42116,7 +42124,7 @@
       <c r="E167">
         <v>2</v>
       </c>
-      <c r="F167" t="str">
+      <c r="F167" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,165</v>
       </c>
@@ -42135,7 +42143,7 @@
       <c r="E168">
         <v>2</v>
       </c>
-      <c r="F168" t="str">
+      <c r="F168" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,166</v>
       </c>
@@ -42154,7 +42162,7 @@
       <c r="E169">
         <v>2</v>
       </c>
-      <c r="F169" t="str">
+      <c r="F169" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,167</v>
       </c>
@@ -42173,7 +42181,7 @@
       <c r="E170">
         <v>2</v>
       </c>
-      <c r="F170" t="str">
+      <c r="F170" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,168</v>
       </c>
@@ -42192,7 +42200,7 @@
       <c r="E171">
         <v>2</v>
       </c>
-      <c r="F171" t="str">
+      <c r="F171" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,169</v>
       </c>
@@ -42211,7 +42219,7 @@
       <c r="E172">
         <v>2</v>
       </c>
-      <c r="F172" t="str">
+      <c r="F172" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,170</v>
       </c>
@@ -42230,7 +42238,7 @@
       <c r="E173">
         <v>2</v>
       </c>
-      <c r="F173" t="str">
+      <c r="F173" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,171</v>
       </c>
@@ -42249,7 +42257,7 @@
       <c r="E174">
         <v>2</v>
       </c>
-      <c r="F174" t="str">
+      <c r="F174" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,172</v>
       </c>
@@ -42268,7 +42276,7 @@
       <c r="E175">
         <v>2</v>
       </c>
-      <c r="F175" t="str">
+      <c r="F175" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,173</v>
       </c>
@@ -42287,7 +42295,7 @@
       <c r="E176">
         <v>2</v>
       </c>
-      <c r="F176" t="str">
+      <c r="F176" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,174</v>
       </c>
@@ -42306,7 +42314,7 @@
       <c r="E177">
         <v>2</v>
       </c>
-      <c r="F177" t="str">
+      <c r="F177" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,175</v>
       </c>
@@ -42325,7 +42333,7 @@
       <c r="E178">
         <v>2</v>
       </c>
-      <c r="F178" t="str">
+      <c r="F178" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,176</v>
       </c>
@@ -42344,7 +42352,7 @@
       <c r="E179">
         <v>2</v>
       </c>
-      <c r="F179" t="str">
+      <c r="F179" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,179</v>
       </c>
@@ -42363,7 +42371,7 @@
       <c r="E180">
         <v>2</v>
       </c>
-      <c r="F180" t="str">
+      <c r="F180" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,180</v>
       </c>
@@ -42382,7 +42390,7 @@
       <c r="E181">
         <v>2</v>
       </c>
-      <c r="F181" t="str">
+      <c r="F181" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,181</v>
       </c>
@@ -42401,7 +42409,7 @@
       <c r="E182">
         <v>2</v>
       </c>
-      <c r="F182" t="str">
+      <c r="F182" s="87" t="str">
         <f t="shared" si="7"/>
         <v>2,399</v>
       </c>
@@ -42420,7 +42428,7 @@
       <c r="E183">
         <v>3</v>
       </c>
-      <c r="F183" t="str">
+      <c r="F183" s="87" t="str">
         <f t="shared" si="7"/>
         <v>3,557</v>
       </c>
@@ -42439,7 +42447,7 @@
       <c r="E184">
         <v>3</v>
       </c>
-      <c r="F184" t="str">
+      <c r="F184" s="87" t="str">
         <f t="shared" si="7"/>
         <v>3,757</v>
       </c>
@@ -42458,7 +42466,7 @@
       <c r="E185">
         <v>3</v>
       </c>
-      <c r="F185" t="str">
+      <c r="F185" s="87" t="str">
         <f t="shared" si="7"/>
         <v>3,857</v>
       </c>
@@ -42477,7 +42485,7 @@
       <c r="E186">
         <v>4</v>
       </c>
-      <c r="F186" t="str">
+      <c r="F186" s="87" t="str">
         <f t="shared" si="7"/>
         <v>4,151</v>
       </c>
@@ -42496,7 +42504,7 @@
       <c r="E187">
         <v>4</v>
       </c>
-      <c r="F187" t="str">
+      <c r="F187" s="87" t="str">
         <f t="shared" si="7"/>
         <v>4,152</v>
       </c>
@@ -42515,7 +42523,7 @@
       <c r="E188">
         <v>4</v>
       </c>
-      <c r="F188" t="str">
+      <c r="F188" s="87" t="str">
         <f t="shared" si="7"/>
         <v>4,161</v>
       </c>
@@ -42534,7 +42542,7 @@
       <c r="E189">
         <v>4</v>
       </c>
-      <c r="F189" t="str">
+      <c r="F189" s="87" t="str">
         <f t="shared" si="7"/>
         <v>4,162</v>
       </c>
@@ -42553,7 +42561,7 @@
       <c r="E190">
         <v>4</v>
       </c>
-      <c r="F190" t="str">
+      <c r="F190" s="87" t="str">
         <f t="shared" si="7"/>
         <v>4,551</v>
       </c>
@@ -42572,7 +42580,7 @@
       <c r="E191">
         <v>4</v>
       </c>
-      <c r="F191" t="str">
+      <c r="F191" s="87" t="str">
         <f t="shared" si="7"/>
         <v>4,552</v>
       </c>
@@ -42591,7 +42599,7 @@
       <c r="E192">
         <v>4</v>
       </c>
-      <c r="F192" t="str">
+      <c r="F192" s="87" t="str">
         <f t="shared" si="7"/>
         <v>4,561</v>
       </c>
@@ -42610,7 +42618,7 @@
       <c r="E193">
         <v>4</v>
       </c>
-      <c r="F193" t="str">
+      <c r="F193" s="87" t="str">
         <f t="shared" si="7"/>
         <v>4,562</v>
       </c>
@@ -42629,7 +42637,7 @@
       <c r="E194">
         <v>5</v>
       </c>
-      <c r="F194" t="str">
+      <c r="F194" s="87" t="str">
         <f t="shared" si="7"/>
         <v>5,153</v>
       </c>
@@ -42648,7 +42656,7 @@
       <c r="E195">
         <v>5</v>
       </c>
-      <c r="F195" t="str">
+      <c r="F195" s="87" t="str">
         <f t="shared" ref="F195:F258" si="9">E195&amp;","&amp;C195</f>
         <v>5,154</v>
       </c>
@@ -42667,7 +42675,7 @@
       <c r="E196">
         <v>5</v>
       </c>
-      <c r="F196" t="str">
+      <c r="F196" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,159</v>
       </c>
@@ -42686,7 +42694,7 @@
       <c r="E197">
         <v>5</v>
       </c>
-      <c r="F197" t="str">
+      <c r="F197" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,182</v>
       </c>
@@ -42705,7 +42713,7 @@
       <c r="E198">
         <v>5</v>
       </c>
-      <c r="F198" t="str">
+      <c r="F198" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,183</v>
       </c>
@@ -42724,7 +42732,7 @@
       <c r="E199">
         <v>5</v>
       </c>
-      <c r="F199" t="str">
+      <c r="F199" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,184</v>
       </c>
@@ -42743,7 +42751,7 @@
       <c r="E200">
         <v>5</v>
       </c>
-      <c r="F200" t="str">
+      <c r="F200" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,185</v>
       </c>
@@ -42762,7 +42770,7 @@
       <c r="E201">
         <v>5</v>
       </c>
-      <c r="F201" t="str">
+      <c r="F201" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,186</v>
       </c>
@@ -42781,7 +42789,7 @@
       <c r="E202">
         <v>5</v>
       </c>
-      <c r="F202" t="str">
+      <c r="F202" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,187</v>
       </c>
@@ -42800,7 +42808,7 @@
       <c r="E203">
         <v>5</v>
       </c>
-      <c r="F203" t="str">
+      <c r="F203" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,188</v>
       </c>
@@ -42819,7 +42827,7 @@
       <c r="E204">
         <v>5</v>
       </c>
-      <c r="F204" t="str">
+      <c r="F204" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,189</v>
       </c>
@@ -42838,7 +42846,7 @@
       <c r="E205">
         <v>5</v>
       </c>
-      <c r="F205" t="str">
+      <c r="F205" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,190</v>
       </c>
@@ -42857,7 +42865,7 @@
       <c r="E206">
         <v>5</v>
       </c>
-      <c r="F206" t="str">
+      <c r="F206" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,191</v>
       </c>
@@ -42876,7 +42884,7 @@
       <c r="E207">
         <v>5</v>
       </c>
-      <c r="F207" t="str">
+      <c r="F207" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,192</v>
       </c>
@@ -42895,7 +42903,7 @@
       <c r="E208">
         <v>5</v>
       </c>
-      <c r="F208" t="str">
+      <c r="F208" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,193</v>
       </c>
@@ -42914,7 +42922,7 @@
       <c r="E209">
         <v>5</v>
       </c>
-      <c r="F209" t="str">
+      <c r="F209" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,194</v>
       </c>
@@ -42933,7 +42941,7 @@
       <c r="E210">
         <v>5</v>
       </c>
-      <c r="F210" t="str">
+      <c r="F210" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,195</v>
       </c>
@@ -42952,7 +42960,7 @@
       <c r="E211">
         <v>5</v>
       </c>
-      <c r="F211" t="str">
+      <c r="F211" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,196</v>
       </c>
@@ -42971,7 +42979,7 @@
       <c r="E212">
         <v>5</v>
       </c>
-      <c r="F212" t="str">
+      <c r="F212" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,197</v>
       </c>
@@ -42990,7 +42998,7 @@
       <c r="E213">
         <v>5</v>
       </c>
-      <c r="F213" t="str">
+      <c r="F213" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,198</v>
       </c>
@@ -43009,7 +43017,7 @@
       <c r="E214">
         <v>5</v>
       </c>
-      <c r="F214" t="str">
+      <c r="F214" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,199</v>
       </c>
@@ -43028,7 +43036,7 @@
       <c r="E215">
         <v>5</v>
       </c>
-      <c r="F215" t="str">
+      <c r="F215" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,200</v>
       </c>
@@ -43047,7 +43055,7 @@
       <c r="E216">
         <v>5</v>
       </c>
-      <c r="F216" t="str">
+      <c r="F216" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,201</v>
       </c>
@@ -43066,7 +43074,7 @@
       <c r="E217">
         <v>5</v>
       </c>
-      <c r="F217" t="str">
+      <c r="F217" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,202</v>
       </c>
@@ -43085,7 +43093,7 @@
       <c r="E218">
         <v>5</v>
       </c>
-      <c r="F218" t="str">
+      <c r="F218" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,203</v>
       </c>
@@ -43104,7 +43112,7 @@
       <c r="E219">
         <v>5</v>
       </c>
-      <c r="F219" t="str">
+      <c r="F219" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,204</v>
       </c>
@@ -43123,7 +43131,7 @@
       <c r="E220">
         <v>5</v>
       </c>
-      <c r="F220" t="str">
+      <c r="F220" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,205</v>
       </c>
@@ -43142,7 +43150,7 @@
       <c r="E221">
         <v>5</v>
       </c>
-      <c r="F221" t="str">
+      <c r="F221" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,206</v>
       </c>
@@ -43161,7 +43169,7 @@
       <c r="E222">
         <v>5</v>
       </c>
-      <c r="F222" t="str">
+      <c r="F222" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,207</v>
       </c>
@@ -43180,7 +43188,7 @@
       <c r="E223">
         <v>5</v>
       </c>
-      <c r="F223" t="str">
+      <c r="F223" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,516</v>
       </c>
@@ -43199,7 +43207,7 @@
       <c r="E224">
         <v>5</v>
       </c>
-      <c r="F224" t="str">
+      <c r="F224" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,517</v>
       </c>
@@ -43218,7 +43226,7 @@
       <c r="E225">
         <v>5</v>
       </c>
-      <c r="F225" t="str">
+      <c r="F225" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,518</v>
       </c>
@@ -43237,7 +43245,7 @@
       <c r="E226">
         <v>5</v>
       </c>
-      <c r="F226" t="str">
+      <c r="F226" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,519</v>
       </c>
@@ -43256,7 +43264,7 @@
       <c r="E227">
         <v>5</v>
       </c>
-      <c r="F227" t="str">
+      <c r="F227" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,520</v>
       </c>
@@ -43275,7 +43283,7 @@
       <c r="E228">
         <v>5</v>
       </c>
-      <c r="F228" t="str">
+      <c r="F228" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,521</v>
       </c>
@@ -43294,7 +43302,7 @@
       <c r="E229">
         <v>5</v>
       </c>
-      <c r="F229" t="str">
+      <c r="F229" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,522</v>
       </c>
@@ -43313,7 +43321,7 @@
       <c r="E230">
         <v>5</v>
       </c>
-      <c r="F230" t="str">
+      <c r="F230" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,523</v>
       </c>
@@ -43332,7 +43340,7 @@
       <c r="E231">
         <v>5</v>
       </c>
-      <c r="F231" t="str">
+      <c r="F231" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,524</v>
       </c>
@@ -43351,7 +43359,7 @@
       <c r="E232">
         <v>5</v>
       </c>
-      <c r="F232" t="str">
+      <c r="F232" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,525</v>
       </c>
@@ -43370,7 +43378,7 @@
       <c r="E233">
         <v>5</v>
       </c>
-      <c r="F233" t="str">
+      <c r="F233" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,526</v>
       </c>
@@ -43389,7 +43397,7 @@
       <c r="E234">
         <v>5</v>
       </c>
-      <c r="F234" t="str">
+      <c r="F234" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,527</v>
       </c>
@@ -43408,7 +43416,7 @@
       <c r="E235">
         <v>5</v>
       </c>
-      <c r="F235" t="str">
+      <c r="F235" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,528</v>
       </c>
@@ -43427,7 +43435,7 @@
       <c r="E236">
         <v>5</v>
       </c>
-      <c r="F236" t="str">
+      <c r="F236" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,529</v>
       </c>
@@ -43446,7 +43454,7 @@
       <c r="E237">
         <v>5</v>
       </c>
-      <c r="F237" t="str">
+      <c r="F237" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,530</v>
       </c>
@@ -43465,7 +43473,7 @@
       <c r="E238">
         <v>5</v>
       </c>
-      <c r="F238" t="str">
+      <c r="F238" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,531</v>
       </c>
@@ -43484,7 +43492,7 @@
       <c r="E239">
         <v>5</v>
       </c>
-      <c r="F239" t="str">
+      <c r="F239" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,532</v>
       </c>
@@ -43503,7 +43511,7 @@
       <c r="E240">
         <v>5</v>
       </c>
-      <c r="F240" t="str">
+      <c r="F240" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,533</v>
       </c>
@@ -43522,7 +43530,7 @@
       <c r="E241">
         <v>5</v>
       </c>
-      <c r="F241" t="str">
+      <c r="F241" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,534</v>
       </c>
@@ -43541,7 +43549,7 @@
       <c r="E242">
         <v>5</v>
       </c>
-      <c r="F242" t="str">
+      <c r="F242" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,535</v>
       </c>
@@ -43560,7 +43568,7 @@
       <c r="E243">
         <v>5</v>
       </c>
-      <c r="F243" t="str">
+      <c r="F243" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,536</v>
       </c>
@@ -43579,7 +43587,7 @@
       <c r="E244">
         <v>5</v>
       </c>
-      <c r="F244" t="str">
+      <c r="F244" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,537</v>
       </c>
@@ -43598,7 +43606,7 @@
       <c r="E245">
         <v>5</v>
       </c>
-      <c r="F245" t="str">
+      <c r="F245" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,538</v>
       </c>
@@ -43617,7 +43625,7 @@
       <c r="E246">
         <v>5</v>
       </c>
-      <c r="F246" t="str">
+      <c r="F246" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,539</v>
       </c>
@@ -43636,7 +43644,7 @@
       <c r="E247">
         <v>5</v>
       </c>
-      <c r="F247" t="str">
+      <c r="F247" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,540</v>
       </c>
@@ -43655,7 +43663,7 @@
       <c r="E248">
         <v>5</v>
       </c>
-      <c r="F248" t="str">
+      <c r="F248" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,553</v>
       </c>
@@ -43674,7 +43682,7 @@
       <c r="E249">
         <v>5</v>
       </c>
-      <c r="F249" t="str">
+      <c r="F249" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,554</v>
       </c>
@@ -43693,7 +43701,7 @@
       <c r="E250">
         <v>5</v>
       </c>
-      <c r="F250" t="str">
+      <c r="F250" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,555</v>
       </c>
@@ -43712,7 +43720,7 @@
       <c r="E251">
         <v>5</v>
       </c>
-      <c r="F251" t="str">
+      <c r="F251" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,556</v>
       </c>
@@ -43731,7 +43739,7 @@
       <c r="E252">
         <v>5</v>
       </c>
-      <c r="F252" t="str">
+      <c r="F252" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,559</v>
       </c>
@@ -43750,7 +43758,7 @@
       <c r="E253">
         <v>5</v>
       </c>
-      <c r="F253" t="str">
+      <c r="F253" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,716</v>
       </c>
@@ -43769,7 +43777,7 @@
       <c r="E254">
         <v>5</v>
       </c>
-      <c r="F254" t="str">
+      <c r="F254" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,717</v>
       </c>
@@ -43788,7 +43796,7 @@
       <c r="E255">
         <v>5</v>
       </c>
-      <c r="F255" t="str">
+      <c r="F255" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,718</v>
       </c>
@@ -43807,7 +43815,7 @@
       <c r="E256">
         <v>5</v>
       </c>
-      <c r="F256" t="str">
+      <c r="F256" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,719</v>
       </c>
@@ -43826,7 +43834,7 @@
       <c r="E257">
         <v>5</v>
       </c>
-      <c r="F257" t="str">
+      <c r="F257" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,720</v>
       </c>
@@ -43845,7 +43853,7 @@
       <c r="E258">
         <v>5</v>
       </c>
-      <c r="F258" t="str">
+      <c r="F258" s="87" t="str">
         <f t="shared" si="9"/>
         <v>5,721</v>
       </c>
@@ -43864,7 +43872,7 @@
       <c r="E259">
         <v>5</v>
       </c>
-      <c r="F259" t="str">
+      <c r="F259" s="87" t="str">
         <f t="shared" ref="F259:F270" si="11">E259&amp;","&amp;C259</f>
         <v>5,722</v>
       </c>
@@ -43883,7 +43891,7 @@
       <c r="E260">
         <v>5</v>
       </c>
-      <c r="F260" t="str">
+      <c r="F260" s="87" t="str">
         <f t="shared" si="11"/>
         <v>5,723</v>
       </c>
@@ -43902,7 +43910,7 @@
       <c r="E261">
         <v>5</v>
       </c>
-      <c r="F261" t="str">
+      <c r="F261" s="87" t="str">
         <f t="shared" si="11"/>
         <v>5,724</v>
       </c>
@@ -43921,7 +43929,7 @@
       <c r="E262">
         <v>5</v>
       </c>
-      <c r="F262" t="str">
+      <c r="F262" s="87" t="str">
         <f t="shared" si="11"/>
         <v>5,754</v>
       </c>
@@ -43940,7 +43948,7 @@
       <c r="E263">
         <v>5</v>
       </c>
-      <c r="F263" t="str">
+      <c r="F263" s="87" t="str">
         <f t="shared" si="11"/>
         <v>5,755</v>
       </c>
@@ -43959,7 +43967,7 @@
       <c r="E264">
         <v>5</v>
       </c>
-      <c r="F264" t="str">
+      <c r="F264" s="87" t="str">
         <f t="shared" si="11"/>
         <v>5,756</v>
       </c>
@@ -43978,7 +43986,7 @@
       <c r="E265">
         <v>5</v>
       </c>
-      <c r="F265" t="str">
+      <c r="F265" s="87" t="str">
         <f t="shared" si="11"/>
         <v>5,759</v>
       </c>
@@ -43997,7 +44005,7 @@
       <c r="E266">
         <v>5</v>
       </c>
-      <c r="F266" t="str">
+      <c r="F266" s="87" t="str">
         <f t="shared" si="11"/>
         <v>5,824</v>
       </c>
@@ -44016,7 +44024,7 @@
       <c r="E267">
         <v>5</v>
       </c>
-      <c r="F267" t="str">
+      <c r="F267" s="87" t="str">
         <f t="shared" si="11"/>
         <v>5,825</v>
       </c>
@@ -44035,7 +44043,7 @@
       <c r="E268">
         <v>5</v>
       </c>
-      <c r="F268" t="str">
+      <c r="F268" s="87" t="str">
         <f t="shared" si="11"/>
         <v>5,826</v>
       </c>
@@ -44054,7 +44062,7 @@
       <c r="E269">
         <v>5</v>
       </c>
-      <c r="F269" t="str">
+      <c r="F269" s="87" t="str">
         <f t="shared" si="11"/>
         <v>5,854</v>
       </c>
@@ -44073,7 +44081,7 @@
       <c r="E270">
         <v>5</v>
       </c>
-      <c r="F270" t="str">
+      <c r="F270" s="87" t="str">
         <f t="shared" si="11"/>
         <v>5,856</v>
       </c>
